--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Mortgage Payment</t>
-  </si>
-  <si>
-    <t>Tax Payment</t>
   </si>
   <si>
     <t>HOA Payment</t>
@@ -70,14 +67,21 @@
   <si>
     <t>Cash Flow</t>
   </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Escrow Payment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -141,7 +145,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -156,6 +160,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -256,7 +261,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +416,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$42</c:f>
+              <c:f>Sheet1!$M$2:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
@@ -568,7 +573,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -725,129 +730,129 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$42</c:f>
+              <c:f>Sheet1!$O$2:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>0.78397968171476839</c:v>
+                  <c:v>-2.5843668846901857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31300538416027812</c:v>
+                  <c:v>-0.16736907397995762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20938206279291893</c:v>
+                  <c:v>-8.8827021220126673E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16391290226085961</c:v>
+                  <c:v>0.1394974536227695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13837403412515145</c:v>
+                  <c:v>-0.15249320839109795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12201978804482107</c:v>
+                  <c:v>9.3780624765330042E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1106524911462359</c:v>
+                  <c:v>8.6396522343318419E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10229421294428985</c:v>
+                  <c:v>8.0966421133316896E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5890829726664212E-2</c:v>
+                  <c:v>7.6805784030468671E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0829076551493401E-2</c:v>
+                  <c:v>7.3516363088133668E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10419511329907022</c:v>
+                  <c:v>8.831792251571513E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.902960380453428E-2</c:v>
+                  <c:v>8.43385179661858E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.4690990790108315E-2</c:v>
+                  <c:v>8.0996161945244449E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0996326816691356E-2</c:v>
+                  <c:v>7.8149910407800227E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7812908812523544E-2</c:v>
+                  <c:v>7.5697527936195136E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.5042137139123564E-2</c:v>
+                  <c:v>7.356305264666492E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2609221323316162E-2</c:v>
+                  <c:v>7.168886541007867E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0456402343204156E-2</c:v>
+                  <c:v>7.0030468251528546E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8538365484940517E-2</c:v>
+                  <c:v>6.8552950381673361E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6819059993795138E-2</c:v>
+                  <c:v>6.7228538032682417E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5269446651487146E-2</c:v>
+                  <c:v>6.603485917535773E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3865872064305838E-2</c:v>
+                  <c:v>6.4953691058824661E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2588875240473652E-2</c:v>
+                  <c:v>6.3970040789015442E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1422298040783802E-2</c:v>
+                  <c:v>6.3071460013342309E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0352612908637938E-2</c:v>
+                  <c:v>6.2247526999008936E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9368408384038849E-2</c:v>
+                  <c:v>6.1489450269234483E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8459990823527619E-2</c:v>
+                  <c:v>6.0789761765384996E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.7619072815309475E-2</c:v>
+                  <c:v>6.0142076799713264E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6838527043876911E-2</c:v>
+                  <c:v>5.9540904430868603E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.6112190107480831E-2</c:v>
+                  <c:v>5.8981496323446889E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.5085920000000033E-2</c:v>
+                  <c:v>5.8110940429787601E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5085920000000047E-2</c:v>
+                  <c:v>5.8110940429787608E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5085920000000061E-2</c:v>
+                  <c:v>5.8110940429787615E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.5085920000000075E-2</c:v>
+                  <c:v>5.8110940429787629E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5085920000000033E-2</c:v>
+                  <c:v>5.811094042978758E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.5085920000000019E-2</c:v>
+                  <c:v>5.8110940429787566E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5085920000000005E-2</c:v>
+                  <c:v>5.8110940429787553E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.5085920000000089E-2</c:v>
+                  <c:v>5.8110940429787643E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.5085920000000033E-2</c:v>
+                  <c:v>5.8110940429787587E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.5085920000000103E-2</c:v>
+                  <c:v>5.811094042978765E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1328,132 +1333,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$42</c:f>
+              <c:f>Sheet1!$P$2:$P$42</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-9683.8799999999974</c:v>
+                  <c:v>-53626.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9338.9819999999963</c:v>
+                  <c:v>-26724.559999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8983.7370599999977</c:v>
+                  <c:v>-10785.439999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8617.8347717999932</c:v>
+                  <c:v>-10184.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8240.9554149539981</c:v>
+                  <c:v>-9704.159999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7852.7696774026153</c:v>
+                  <c:v>-12171.970000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7452.9383677246897</c:v>
+                  <c:v>-10181.934000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7041.1121187564313</c:v>
+                  <c:v>-9851.9776200000033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6616.9310823191245</c:v>
+                  <c:v>-9512.1225486000058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6180.024614788701</c:v>
+                  <c:v>-9162.0718250580067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5730.0109532323659</c:v>
+                  <c:v>-8801.5195798097429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1786.0168818293369</c:v>
+                  <c:v>-4949.6707672040375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1308.5973882842118</c:v>
+                  <c:v>-4567.1608902201588</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-816.85530993273824</c:v>
+                  <c:v>-4173.1757169267621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-310.36096923072</c:v>
+                  <c:v>-3767.3709884345644</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>211.32820169235856</c:v>
+                  <c:v>-3349.3921180875968</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>748.6680477431255</c:v>
+                  <c:v>-2918.8738816302302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1302.1280891754268</c:v>
+                  <c:v>-2475.4400980791288</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1872.1919318506916</c:v>
+                  <c:v>-2018.7033010215091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2459.3576898062111</c:v>
+                  <c:v>-1548.2644000521559</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3064.1384205003906</c:v>
+                  <c:v>-1063.7123320537212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3687.0625731154087</c:v>
+                  <c:v>-564.62370201533304</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4328.6744503088739</c:v>
+                  <c:v>-50.562413075798759</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4989.5346838181376</c:v>
+                  <c:v>478.92071453193421</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5670.2207243326902</c:v>
+                  <c:v>1024.2883359678908</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6371.3273460626697</c:v>
+                  <c:v>1586.0169860469268</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7093.4671664445468</c:v>
+                  <c:v>2164.5974956283335</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7837.2711814378818</c:v>
+                  <c:v>2760.5354204971845</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8603.3893168810155</c:v>
+                  <c:v>3374.3514831121065</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9392.4909963874379</c:v>
+                  <c:v>4006.5820276054656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10205.265726279062</c:v>
+                  <c:v>4657.7794884336363</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28742.423698067436</c:v>
+                  <c:v>23028.512873086642</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29604.696409009463</c:v>
+                  <c:v>23719.368259279239</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30492.837301279753</c:v>
+                  <c:v>24430.949307057621</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31407.622420318141</c:v>
+                  <c:v>25163.877786269346</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32349.851092927689</c:v>
+                  <c:v>25918.794119857423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33320.346625715523</c:v>
+                  <c:v>26696.357943453149</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34319.957024486983</c:v>
+                  <c:v>27497.248681756741</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35349.555735221598</c:v>
+                  <c:v>28322.166142209455</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36410.042407278248</c:v>
+                  <c:v>29171.831126475736</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37502.343679496596</c:v>
+                  <c:v>30046.98606027001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,13 +2737,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>562068</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>188613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>716731</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>163465</xdr:rowOff>
@@ -2768,13 +2773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>562070</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>99589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>752360</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>163466</xdr:rowOff>
@@ -3102,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3113,19 +3118,21 @@
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,43 +3143,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -3186,42 +3197,45 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E2" s="5">
-        <f>-2062.95-C2</f>
-        <v>-587.94999999999982</v>
+        <f>-2046.7-C2</f>
+        <v>-571.70000000000005</v>
       </c>
       <c r="F2" s="5">
         <v>-454</v>
       </c>
       <c r="G2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="10">
-        <f t="shared" ref="H2:H32" si="0">0.035/12</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-20137.46</v>
+      </c>
+      <c r="I2" s="10">
+        <f t="shared" ref="I2:I32" si="0">0.035/12</f>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I32" si="1">(A2-2012)*12</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:J32" si="2">-328457*((1+H2)^360-(1+H2)^I2)/((1+H2)^360-1)</f>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J32" si="1">(A2-2012)*12</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:K32" si="2">-328457*((1+I2)^360-(1+I2)^J2)/((1+I2)^360-1)</f>
         <v>-328457</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>337500</v>
       </c>
-      <c r="L2" s="5">
-        <f t="shared" ref="L2:L65" si="3">J2+K2</f>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M65" si="3">K2+L2</f>
         <v>9043</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="8">
-        <f>12*(C2+D2+E2+F2+G2)</f>
-        <v>-9683.8799999999974</v>
+      <c r="N2" s="7"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="8">
+        <f>12*(C2+D2+E2+F2+G2)+H2</f>
+        <v>-53626.34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -3236,51 +3250,53 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E3" s="5">
-        <f>E2*(1+B3)</f>
-        <v>-605.58849999999984</v>
+        <f>-2062.95-C3</f>
+        <v>-587.94999999999982</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F34" si="4">F2*(1+B3)</f>
-        <v>-467.62</v>
+        <v>-454</v>
       </c>
       <c r="G3" s="5">
-        <f>G2*(1+B2)</f>
-        <v>2060</v>
-      </c>
-      <c r="H3" s="10">
+        <f>(6149.9+1998)/12</f>
+        <v>678.99166666666667</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-1188.58</v>
+      </c>
+      <c r="I3" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <f t="shared" si="2"/>
         <v>-322153.48973825335</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K34" si="5">K2*(1+B3)</f>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L34" si="4">L2*(1+B3)</f>
         <v>347625</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <f t="shared" si="3"/>
         <v>25471.510261746647</v>
       </c>
-      <c r="M3" s="8">
-        <f>L3-L2+12*(C3+D3+E3+F3+G3)</f>
-        <v>7089.528261746651</v>
-      </c>
-      <c r="N3" s="13">
-        <f>M3/L2</f>
-        <v>0.78397968171476839</v>
-      </c>
-      <c r="O3" s="8">
-        <f t="shared" ref="O3:O66" si="6">12*(C3+D3+E3+F3+G3)</f>
-        <v>-9338.9819999999963</v>
+      <c r="N3" s="8">
+        <f>M3-M2+12*(C3+D3+E3+F3+G3+H3)</f>
+        <v>-23370.429738253348</v>
+      </c>
+      <c r="O3" s="13">
+        <f>N3/M2</f>
+        <v>-2.5843668846901857</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P66" si="5">12*(C3+D3+E3+F3+G3)+H3</f>
+        <v>-26724.559999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -3295,51 +3311,53 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E67" si="7">E3*(1+B4)</f>
-        <v>-623.75615499999981</v>
+        <f>-2073.7-C4</f>
+        <v>-598.69999999999982</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>-481.64860000000004</v>
+        <v>-454</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G67" si="8">G3*(1+B3)</f>
-        <v>2121.8000000000002</v>
-      </c>
-      <c r="H4" s="10">
+        <v>1998</v>
+      </c>
+      <c r="H4" s="5">
+        <f>-913.59-34.97</f>
+        <v>-948.56000000000006</v>
+      </c>
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <f t="shared" si="2"/>
         <v>-315625.78282363288</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="5"/>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
         <v>358053.75</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <f t="shared" si="3"/>
         <v>42427.967176367121</v>
       </c>
-      <c r="M4" s="8">
-        <f t="shared" ref="M4:M67" si="9">L4-L3+12*(C4+D4+E4+F4+G4)</f>
-        <v>7972.7198546204763</v>
-      </c>
-      <c r="N4" s="13">
-        <f t="shared" ref="N4:N67" si="10">M4/L3</f>
-        <v>0.31300538416027812</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" si="6"/>
-        <v>-8983.7370599999977</v>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N67" si="6">M4-M3+12*(C4+D4+E4+F4+G4+H4)</f>
+        <v>-4263.1430853795246</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" ref="O4:O67" si="7">N4/M3</f>
+        <v>-0.16736907397995762</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="5"/>
+        <v>-10785.439999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -3354,51 +3372,53 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="7"/>
-        <v>-642.46883964999984</v>
+        <f>-2048.67-C5</f>
+        <v>-573.67000000000007</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>-496.09805800000004</v>
+        <v>-475</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="8"/>
-        <v>2185.4540000000002</v>
-      </c>
-      <c r="H5" s="10">
+        <f>(1998+22590)/12</f>
+        <v>2049</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-1007.81</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="2"/>
         <v>-308865.90526433487</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="5"/>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
         <v>368795.36249999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>59929.457235665119</v>
       </c>
-      <c r="M5" s="8">
-        <f t="shared" si="9"/>
-        <v>8883.6552874980043</v>
-      </c>
-      <c r="N5" s="13">
-        <f t="shared" si="10"/>
-        <v>0.20938206279291893</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>-8617.8347717999932</v>
+        <v>-3768.7499407020005</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="7"/>
+        <v>-8.8827021220126673E-2</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="5"/>
+        <v>-10184.33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -3413,51 +3433,52 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="7"/>
-        <v>-661.74290483949983</v>
+        <f>-2078.64-C6</f>
+        <v>-603.63999999999987</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>-510.98099974000007</v>
+        <v>-540</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="8"/>
-        <v>2251.0176200000001</v>
-      </c>
-      <c r="H6" s="10">
+        <v>2100</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="2"/>
         <v>-301865.59945796494</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>379859.223375</v>
+      </c>
+      <c r="M6" s="5">
+        <f>K6+L6</f>
+        <v>77993.62391703506</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="6"/>
+        <v>8360.0066813699432</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="7"/>
+        <v>0.1394974536227695</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="5"/>
-        <v>379859.223375</v>
-      </c>
-      <c r="L6" s="5">
-        <f>J6+K6</f>
-        <v>77993.62391703506</v>
-      </c>
-      <c r="M6" s="8">
-        <f t="shared" si="9"/>
-        <v>9823.2112664159431</v>
-      </c>
-      <c r="N6" s="13">
-        <f t="shared" si="10"/>
-        <v>0.16391290226085961</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="6"/>
-        <v>-8240.9554149539981</v>
+        <v>-9704.159999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -3472,51 +3493,52 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="7"/>
-        <v>-681.59519198468479</v>
+        <f>-2132.15-C7</f>
+        <v>-657.15000000000009</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="4"/>
-        <v>-526.31042973220008</v>
+        <v>-553</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="8"/>
-        <v>2318.5481486000003</v>
-      </c>
-      <c r="H7" s="10">
+        <v>2100</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-1669.69</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="2"/>
         <v>-294616.31410437229</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="5"/>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
         <v>391255.00007625</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <f t="shared" si="3"/>
         <v>96638.685971877712</v>
       </c>
-      <c r="M7" s="8">
-        <f t="shared" si="9"/>
-        <v>10792.292377440037</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="10"/>
-        <v>0.13837403412515145</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="N7" s="8">
         <f t="shared" si="6"/>
-        <v>-7852.7696774026153</v>
+        <v>-11893.497945157349</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.15249320839109795</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="5"/>
+        <v>-12171.970000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -3525,58 +3547,61 @@
         <v>0.03</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C32" si="11">C7</f>
+        <f t="shared" ref="C8:C32" si="8">C7</f>
         <v>-1475</v>
       </c>
       <c r="D8" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="7"/>
-        <v>-702.0430477442253</v>
+        <f t="shared" ref="E8:E67" si="9">E7*(1+B8)</f>
+        <v>-676.86450000000013</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="4"/>
-        <v>-542.09974262416608</v>
+        <f t="shared" ref="F8:F34" si="10">F7*(1+B8)</f>
+        <v>-569.59</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="8"/>
-        <v>2388.1045930580003</v>
-      </c>
-      <c r="H8" s="10">
+        <f t="shared" ref="G8:G39" si="11">G7*(1+B7)</f>
+        <v>2163</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="2"/>
         <v>-287109.19375971658</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="5"/>
+      <c r="L8" s="5">
+        <f t="shared" si="4"/>
         <v>402992.65007853752</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <f t="shared" si="3"/>
         <v>115883.45631882094</v>
       </c>
-      <c r="M8" s="8">
-        <f t="shared" si="9"/>
-        <v>11791.831979218541</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" si="10"/>
-        <v>0.12201978804482107</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="N8" s="8">
         <f t="shared" si="6"/>
-        <v>-7452.9383677246897</v>
+        <v>9062.8363469432279</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="7"/>
+        <v>9.3780624765330042E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="5"/>
+        <v>-10181.934000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -3585,58 +3610,61 @@
         <v>0.03</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D9" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="7"/>
-        <v>-723.10433917655212</v>
+        <f t="shared" si="9"/>
+        <v>-697.17043500000011</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>-558.36273490289113</v>
+        <f t="shared" si="10"/>
+        <v>-586.67770000000007</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="8"/>
-        <v>2459.7477308497405</v>
-      </c>
-      <c r="H9" s="10">
+        <f t="shared" si="11"/>
+        <v>2227.89</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <f t="shared" si="2"/>
         <v>-279335.06801900273</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="5"/>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
         <v>415082.42958089366</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <f t="shared" si="3"/>
         <v>135747.36156189092</v>
       </c>
-      <c r="M9" s="8">
-        <f t="shared" si="9"/>
-        <v>12822.79312431355</v>
-      </c>
-      <c r="N9" s="13">
-        <f t="shared" si="10"/>
-        <v>0.1106524911462359</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="N9" s="8">
         <f t="shared" si="6"/>
-        <v>-7041.1121187564313</v>
+        <v>10011.927623069978</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="7"/>
+        <v>8.6396522343318419E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="5"/>
+        <v>-9851.9776200000033</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -3645,58 +3673,61 @@
         <v>0.03</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D10" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="7"/>
-        <v>-744.79746935184869</v>
+        <f t="shared" si="9"/>
+        <v>-718.08554805000017</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="4"/>
-        <v>-575.11361694997788</v>
+        <f t="shared" si="10"/>
+        <v>-604.27803100000006</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="8"/>
-        <v>2533.5401627752326</v>
-      </c>
-      <c r="H10" s="10">
+        <f t="shared" si="11"/>
+        <v>2294.7266999999997</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <f t="shared" si="2"/>
         <v>-271284.44031387288</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="5"/>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
         <v>427534.90246832051</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <f t="shared" si="3"/>
         <v>156250.46215444762</v>
       </c>
-      <c r="M10" s="8">
-        <f t="shared" si="9"/>
-        <v>13886.169510237576</v>
-      </c>
-      <c r="N10" s="13">
-        <f t="shared" si="10"/>
-        <v>0.10229421294428985</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="N10" s="8">
         <f t="shared" si="6"/>
-        <v>-6616.9310823191245</v>
+        <v>10990.978043956695</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="7"/>
+        <v>8.0966421133316896E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="5"/>
+        <v>-9512.1225486000058</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -3705,58 +3736,61 @@
         <v>0.03</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D11" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="7"/>
-        <v>-767.14139343240413</v>
+        <f t="shared" si="9"/>
+        <v>-739.62811449150024</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>-592.3670254584772</v>
+        <f t="shared" si="10"/>
+        <v>-622.40637193000009</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="8"/>
-        <v>2609.5463676584895</v>
-      </c>
-      <c r="H11" s="10">
+        <f t="shared" si="11"/>
+        <v>2363.5685009999997</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <f t="shared" si="2"/>
         <v>-262947.47631196911</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="5"/>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
         <v>440360.94954237016</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <f t="shared" si="3"/>
         <v>177413.47323040105</v>
       </c>
-      <c r="M11" s="8">
-        <f t="shared" si="9"/>
-        <v>14982.986461164728</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="10"/>
-        <v>9.5890829726664212E-2</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="N11" s="8">
         <f t="shared" si="6"/>
-        <v>-6180.024614788701</v>
+        <v>12000.939250895422</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="7"/>
+        <v>7.6805784030468671E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="5"/>
+        <v>-9162.0718250580067</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -3765,58 +3799,61 @@
         <v>0.03</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D12" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="7"/>
-        <v>-790.15563523537628</v>
+        <f t="shared" si="9"/>
+        <v>-761.81695792624532</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="4"/>
-        <v>-610.13803622223156</v>
+        <f t="shared" si="10"/>
+        <v>-641.07856308790008</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="8"/>
-        <v>2687.8327586882442</v>
-      </c>
-      <c r="H12" s="10">
+        <f t="shared" si="11"/>
+        <v>2434.47555603</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <f t="shared" si="2"/>
         <v>-254313.99190369746</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="5"/>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
         <v>453571.7780286413</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <f t="shared" si="3"/>
         <v>199257.78612494384</v>
       </c>
-      <c r="M12" s="8">
-        <f t="shared" si="9"/>
-        <v>16114.301941310423</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" si="10"/>
-        <v>9.0829076551493401E-2</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="N12" s="8">
         <f t="shared" si="6"/>
-        <v>-5730.0109532323659</v>
+        <v>13042.793314733046</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="7"/>
+        <v>7.3516363088133668E-2</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="5"/>
+        <v>-8801.5195798097429</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2023</v>
       </c>
@@ -3825,58 +3862,61 @@
         <v>0.03</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="9"/>
+        <v>-784.67146666403266</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="10"/>
+        <v>-660.31091998053705</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="7"/>
-        <v>-813.8603042924376</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="4"/>
-        <v>-628.44217730889852</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="8"/>
-        <v>2768.4677414488915</v>
-      </c>
-      <c r="H13" s="10">
+        <v>2507.5098227109002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <f t="shared" si="2"/>
         <v>-245373.44076171692</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="5"/>
+      <c r="L13" s="5">
+        <f t="shared" si="4"/>
         <v>467178.93136950053</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <f t="shared" si="3"/>
         <v>221805.49060778361</v>
       </c>
-      <c r="M13" s="8">
-        <f t="shared" si="9"/>
-        <v>20761.687601010424</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="10"/>
-        <v>0.10419511329907022</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="N13" s="8">
         <f t="shared" si="6"/>
-        <v>-1786.0168818293369</v>
+        <v>17598.033715635727</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="7"/>
+        <v>8.831792251571513E-2</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="5"/>
+        <v>-4949.6707672040375</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2024</v>
       </c>
@@ -3885,58 +3925,61 @@
         <v>0.03</v>
       </c>
       <c r="C14" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="9"/>
+        <v>-808.21161066395371</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="10"/>
+        <v>-680.12024757995323</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="7"/>
-        <v>-838.27611342121077</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="4"/>
-        <v>-647.29544262816546</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="8"/>
-        <v>2851.5217736923582</v>
-      </c>
-      <c r="H14" s="10">
+        <v>2582.735117392227</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <f t="shared" si="2"/>
         <v>-236114.90145795856</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="5"/>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
         <v>481194.29931058554</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <f t="shared" si="3"/>
         <v>245079.39785262698</v>
       </c>
-      <c r="M14" s="8">
-        <f t="shared" si="9"/>
-        <v>21965.309856559161</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="10"/>
-        <v>9.902960380453428E-2</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="N14" s="8">
         <f t="shared" si="6"/>
-        <v>-1308.5973882842118</v>
+        <v>18706.746354623214</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="7"/>
+        <v>8.43385179661858E-2</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="5"/>
+        <v>-4567.1608902201588</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2025</v>
       </c>
@@ -3945,58 +3988,61 @@
         <v>0.03</v>
       </c>
       <c r="C15" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="9"/>
+        <v>-832.45795898387235</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="10"/>
+        <v>-700.52385500735181</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="7"/>
-        <v>-863.42439682384713</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="4"/>
-        <v>-666.7143059070105</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="8"/>
-        <v>2937.0674269031292</v>
-      </c>
-      <c r="H15" s="10">
+        <v>2660.2171709139939</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="2"/>
         <v>-226527.06412243503</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="5"/>
+      <c r="L15" s="5">
+        <f t="shared" si="4"/>
         <v>495630.12828990311</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <f t="shared" si="3"/>
         <v>269103.06416746811</v>
       </c>
-      <c r="M15" s="8">
-        <f t="shared" si="9"/>
-        <v>23206.811004908392</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="10"/>
-        <v>9.4690990790108315E-2</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="N15" s="8">
         <f t="shared" si="6"/>
-        <v>-816.85530993273824</v>
+        <v>19850.49059791437</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="7"/>
+        <v>8.0996161945244449E-2</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="5"/>
+        <v>-4173.1757169267621</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2026</v>
       </c>
@@ -4005,58 +4051,61 @@
         <v>0.03</v>
       </c>
       <c r="C16" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="9"/>
+        <v>-857.43169775338856</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="10"/>
+        <v>-721.53957065757243</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="7"/>
-        <v>-889.32712872856257</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="4"/>
-        <v>-686.7157350842208</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="8"/>
-        <v>3025.1794497102233</v>
-      </c>
-      <c r="H16" s="10">
+        <v>2740.0236860414138</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <f t="shared" si="2"/>
         <v>-216598.21662754533</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="5"/>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
         <v>510499.03213860019</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <f t="shared" si="3"/>
         <v>293900.81551105483</v>
       </c>
-      <c r="M16" s="8">
-        <f t="shared" si="9"/>
-        <v>24487.390374355993</v>
-      </c>
-      <c r="N16" s="13">
-        <f t="shared" si="10"/>
-        <v>9.0996326816691356E-2</v>
-      </c>
-      <c r="O16" s="8">
+      <c r="N16" s="8">
         <f t="shared" si="6"/>
-        <v>-310.36096923072</v>
+        <v>21030.380355152149</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="7"/>
+        <v>7.8149910407800227E-2</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="5"/>
+        <v>-3767.3709884345644</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2027</v>
       </c>
@@ -4065,58 +4114,61 @@
         <v>0.03</v>
       </c>
       <c r="C17" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="9"/>
+        <v>-883.1546486859902</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="10"/>
+        <v>-743.18575777729961</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="7"/>
-        <v>-916.0069425904195</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>-707.31720713674747</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="8"/>
-        <v>3115.9348332015302</v>
-      </c>
-      <c r="H17" s="10">
+        <v>2822.2243966226565</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="2"/>
         <v>-206316.23028099717</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="5"/>
+      <c r="L17" s="5">
+        <f t="shared" si="4"/>
         <v>525814.0031027582</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <f t="shared" si="3"/>
         <v>319497.77282176103</v>
       </c>
-      <c r="M17" s="8">
-        <f t="shared" si="9"/>
-        <v>25808.285512398561</v>
-      </c>
-      <c r="N17" s="13">
-        <f t="shared" si="10"/>
-        <v>8.7812908812523544E-2</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="N17" s="8">
         <f t="shared" si="6"/>
-        <v>211.32820169235856</v>
+        <v>22247.565192618604</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="7"/>
+        <v>7.5697527936195136E-2</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="5"/>
+        <v>-3349.3921180875968</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2028</v>
       </c>
@@ -4125,58 +4177,61 @@
         <v>0.03</v>
       </c>
       <c r="C18" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="9"/>
+        <v>-909.64928814656992</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="10"/>
+        <v>-765.48133051061859</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="7"/>
-        <v>-943.48715086813206</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>-728.53672335084991</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="8"/>
-        <v>3209.412878197576</v>
-      </c>
-      <c r="H18" s="10">
+        <v>2906.8911285213362</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <f t="shared" si="2"/>
         <v>-195668.54500987026</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="5"/>
+      <c r="L18" s="5">
+        <f t="shared" si="4"/>
         <v>541588.42319584091</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <f t="shared" si="3"/>
         <v>345919.87818597065</v>
       </c>
-      <c r="M18" s="8">
-        <f t="shared" si="9"/>
-        <v>27170.773411952749</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="10"/>
-        <v>8.5042137139123564E-2</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="N18" s="8">
         <f t="shared" si="6"/>
-        <v>748.6680477431255</v>
+        <v>23503.231482579395</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="7"/>
+        <v>7.356305264666492E-2</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="5"/>
+        <v>-2918.8738816302302</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2029</v>
       </c>
@@ -4185,58 +4240,61 @@
         <v>0.03</v>
       </c>
       <c r="C19" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="9"/>
+        <v>-936.93876679096707</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="10"/>
+        <v>-788.44577042593721</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="7"/>
-        <v>-971.79176539417608</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="4"/>
-        <v>-750.39282505137544</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="8"/>
-        <v>3305.6952645435035</v>
-      </c>
-      <c r="H19" s="10">
+        <v>2994.0978623769765</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="2"/>
         <v>-184642.15401772154</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="5"/>
+      <c r="L19" s="5">
+        <f t="shared" si="4"/>
         <v>557836.07589171617</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <f t="shared" si="3"/>
         <v>373193.92187399464</v>
       </c>
-      <c r="M19" s="8">
-        <f t="shared" si="9"/>
-        <v>28576.171777199415</v>
-      </c>
-      <c r="N19" s="13">
-        <f t="shared" si="10"/>
-        <v>8.2609221323316162E-2</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="N19" s="8">
         <f t="shared" si="6"/>
-        <v>1302.1280891754268</v>
+        <v>24798.603589944858</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="7"/>
+        <v>7.168886541007867E-2</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="5"/>
+        <v>-2475.4400980791288</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2030</v>
       </c>
@@ -4245,58 +4303,61 @@
         <v>0.03</v>
       </c>
       <c r="C20" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="9"/>
+        <v>-965.0469297946961</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="10"/>
+        <v>-812.09914353871534</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="7"/>
-        <v>-1000.9455183560013</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="4"/>
-        <v>-772.90460980291675</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="8"/>
-        <v>3404.8661224798088</v>
-      </c>
-      <c r="H20" s="10">
+        <v>3083.9207982482858</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="2"/>
         <v>-173223.58789599134</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="5"/>
+      <c r="L20" s="5">
+        <f t="shared" si="4"/>
         <v>574571.15816846769</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <f t="shared" si="3"/>
         <v>401347.57027247635</v>
       </c>
-      <c r="M20" s="8">
-        <f t="shared" si="9"/>
-        <v>30025.840330332408</v>
-      </c>
-      <c r="N20" s="13">
-        <f t="shared" si="10"/>
-        <v>8.0456402343204156E-2</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="N20" s="8">
         <f t="shared" si="6"/>
-        <v>1872.1919318506916</v>
+        <v>26134.945097460208</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="7"/>
+        <v>7.0030468251528546E-2</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="5"/>
+        <v>-2018.7033010215091</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2031</v>
       </c>
@@ -4305,58 +4366,61 @@
         <v>0.03</v>
       </c>
       <c r="C21" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="9"/>
+        <v>-993.99833768853705</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="10"/>
+        <v>-836.46211784487684</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="7"/>
-        <v>-1030.9738839066815</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="4"/>
-        <v>-796.09174809700426</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="8"/>
-        <v>3507.0121061542031</v>
-      </c>
-      <c r="H21" s="6">
+        <v>3176.4384221957343</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="2"/>
         <v>-161398.89817029901</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="5"/>
+      <c r="L21" s="7">
+        <f t="shared" si="4"/>
         <v>591808.29291352176</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <f t="shared" si="3"/>
         <v>430409.39474322274</v>
       </c>
-      <c r="M21" s="8">
-        <f t="shared" si="9"/>
-        <v>31521.182160552598</v>
-      </c>
-      <c r="N21" s="13">
-        <f t="shared" si="10"/>
-        <v>7.8538365484940517E-2</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="N21" s="8">
         <f t="shared" si="6"/>
-        <v>2459.3576898062111</v>
+        <v>27513.560070694235</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="7"/>
+        <v>6.8552950381673361E-2</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="5"/>
+        <v>-1548.2644000521559</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2032</v>
       </c>
@@ -4365,58 +4429,61 @@
         <v>0.03</v>
       </c>
       <c r="C22" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="9"/>
+        <v>-1023.8182878191932</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="10"/>
+        <v>-861.55598138022322</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="7"/>
-        <v>-1061.9031004238821</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="4"/>
-        <v>-819.9745005399144</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="8"/>
-        <v>3612.2224693388293</v>
-      </c>
-      <c r="H22" s="6">
+        <v>3271.7315748616065</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="2"/>
         <v>-149153.64026153236</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="5"/>
+      <c r="L22" s="7">
+        <f t="shared" si="4"/>
         <v>609562.54170092742</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <f t="shared" si="3"/>
         <v>460408.90143939503</v>
       </c>
-      <c r="M22" s="8">
-        <f t="shared" si="9"/>
-        <v>33063.645116672684</v>
-      </c>
-      <c r="N22" s="13">
-        <f t="shared" si="10"/>
-        <v>7.6819059993795138E-2</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="N22" s="8">
         <f t="shared" si="6"/>
-        <v>3064.1384205003906</v>
+        <v>28935.79436411857</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="7"/>
+        <v>6.7228538032682417E-2</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="5"/>
+        <v>-1063.7123320537212</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2033</v>
       </c>
@@ -4425,58 +4492,61 @@
         <v>0.03</v>
       </c>
       <c r="C23" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="9"/>
+        <v>-1054.5328364537691</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="10"/>
+        <v>-887.40266082162998</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="7"/>
-        <v>-1093.7601934365985</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="4"/>
-        <v>-844.57373555611184</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="8"/>
-        <v>3720.5891434189944</v>
-      </c>
-      <c r="H23" s="6">
+        <v>3369.8835221074546</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="2"/>
         <v>-136472.85584091322</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="5"/>
+      <c r="L23" s="7">
+        <f t="shared" si="4"/>
         <v>627849.41795195523</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <f t="shared" si="3"/>
         <v>491376.56211104197</v>
       </c>
-      <c r="M23" s="8">
-        <f t="shared" si="9"/>
-        <v>34654.723244762346</v>
-      </c>
-      <c r="N23" s="13">
-        <f t="shared" si="10"/>
-        <v>7.5269446651487146E-2</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="N23" s="8">
         <f t="shared" si="6"/>
-        <v>3687.0625731154087</v>
+        <v>30403.036969631605</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="7"/>
+        <v>6.603485917535773E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="5"/>
+        <v>-564.62370201533304</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2034</v>
       </c>
@@ -4485,58 +4555,61 @@
         <v>0.03</v>
       </c>
       <c r="C24" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="9"/>
+        <v>-1086.1688215473821</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="10"/>
+        <v>-914.02474064627893</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="7"/>
-        <v>-1126.5729992396964</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="4"/>
-        <v>-869.91094762279522</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="8"/>
-        <v>3832.2068177215642</v>
-      </c>
-      <c r="H24" s="6">
+        <v>3470.9800277706781</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>-123341.05455748811</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" si="5"/>
+      <c r="L24" s="7">
+        <f t="shared" si="4"/>
         <v>646684.90049051389</v>
       </c>
-      <c r="L24" s="7">
+      <c r="M24" s="7">
         <f t="shared" si="3"/>
         <v>523343.84593302576</v>
       </c>
-      <c r="M24" s="8">
-        <f t="shared" si="9"/>
-        <v>36295.958272292657</v>
-      </c>
-      <c r="N24" s="13">
-        <f t="shared" si="10"/>
-        <v>7.3865872064305838E-2</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="N24" s="8">
         <f t="shared" si="6"/>
-        <v>4328.6744503088739</v>
+        <v>31916.721408907986</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="7"/>
+        <v>6.4953691058824661E-2</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="5"/>
+        <v>-50.562413075798759</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2035</v>
       </c>
@@ -4545,58 +4618,61 @@
         <v>0.03</v>
       </c>
       <c r="C25" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="9"/>
+        <v>-1118.7538861938035</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="10"/>
+        <v>-941.44548286566737</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="7"/>
-        <v>-1160.3701892168874</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="4"/>
-        <v>-896.00827605147913</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="8"/>
-        <v>3947.1730222532115</v>
-      </c>
-      <c r="H25" s="6">
+        <v>3575.1094286037987</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="2"/>
         <v>-109742.19511571953</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="5"/>
+      <c r="L25" s="7">
+        <f t="shared" si="4"/>
         <v>666085.44750522927</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M25" s="7">
         <f t="shared" si="3"/>
         <v>556343.2523895097</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" si="9"/>
-        <v>37988.941140302071</v>
-      </c>
-      <c r="N25" s="13">
-        <f t="shared" si="10"/>
-        <v>7.2588875240473652E-2</v>
-      </c>
-      <c r="O25" s="8">
+      <c r="N25" s="8">
         <f t="shared" si="6"/>
-        <v>4989.5346838181376</v>
+        <v>33478.327171015873</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" si="7"/>
+        <v>6.3970040789015442E-2</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="5"/>
+        <v>478.92071453193421</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2036</v>
       </c>
@@ -4605,58 +4681,61 @@
         <v>0.03</v>
       </c>
       <c r="C26" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="9"/>
+        <v>-1152.3165027796176</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="10"/>
+        <v>-969.68884735163738</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="7"/>
-        <v>-1195.1812948933941</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="4"/>
-        <v>-922.8885243330235</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="8"/>
-        <v>4065.588212920808</v>
-      </c>
-      <c r="H26" s="6">
+        <v>3682.3627114619126</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <f t="shared" si="2"/>
         <v>-95659.66568006661</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="5"/>
+      <c r="L26" s="7">
+        <f t="shared" si="4"/>
         <v>686068.01093038614</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <f t="shared" si="3"/>
         <v>590408.34525031957</v>
       </c>
-      <c r="M26" s="8">
-        <f t="shared" si="9"/>
-        <v>39735.313585142569</v>
-      </c>
-      <c r="N26" s="13">
-        <f t="shared" si="10"/>
-        <v>7.1422298040783802E-2</v>
-      </c>
-      <c r="O26" s="8">
+      <c r="N26" s="8">
         <f t="shared" si="6"/>
-        <v>5670.2207243326902</v>
+        <v>35089.381196777766</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="7"/>
+        <v>6.3071460013342309E-2</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="5"/>
+        <v>1024.2883359678908</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2037</v>
       </c>
@@ -4665,58 +4744,61 @@
         <v>0.03</v>
       </c>
       <c r="C27" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="9"/>
+        <v>-1186.8859978630062</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="10"/>
+        <v>-998.77951277218654</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="7"/>
-        <v>-1231.036733740196</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="4"/>
-        <v>-950.57518006301427</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="8"/>
-        <v>4187.5558593084324</v>
-      </c>
-      <c r="H27" s="6">
+        <v>3792.83359280577</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <f t="shared" si="2"/>
         <v>-81076.263582615604</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" si="5"/>
+      <c r="L27" s="7">
+        <f t="shared" si="4"/>
         <v>706650.05125829775</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <f t="shared" si="3"/>
         <v>625573.78767568211</v>
       </c>
-      <c r="M27" s="8">
-        <f t="shared" si="9"/>
-        <v>41536.769771425199</v>
-      </c>
-      <c r="N27" s="13">
-        <f t="shared" si="10"/>
-        <v>7.0352612908637938E-2</v>
-      </c>
-      <c r="O27" s="8">
+      <c r="N27" s="8">
         <f t="shared" si="6"/>
-        <v>6371.3273460626697</v>
+        <v>36751.459411409458</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="7"/>
+        <v>6.2247526999008936E-2</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="5"/>
+        <v>1586.0169860469268</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2038</v>
       </c>
@@ -4725,58 +4807,61 @@
         <v>0.03</v>
       </c>
       <c r="C28" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="9"/>
+        <v>-1222.4925777988965</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="10"/>
+        <v>-1028.7428981553521</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="7"/>
-        <v>-1267.9678357524019</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="4"/>
-        <v>-979.09243546490472</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="8"/>
-        <v>4313.1825350876852</v>
-      </c>
-      <c r="H28" s="6">
+        <v>3906.6186005899431</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <f t="shared" si="2"/>
         <v>-65974.174308972491</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="5"/>
+      <c r="L28" s="7">
+        <f t="shared" si="4"/>
         <v>727849.55279604672</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <f t="shared" si="3"/>
         <v>661875.37848707428</v>
       </c>
-      <c r="M28" s="8">
-        <f t="shared" si="9"/>
-        <v>43395.057977836725</v>
-      </c>
-      <c r="N28" s="13">
-        <f t="shared" si="10"/>
-        <v>6.9368408384038849E-2</v>
-      </c>
-      <c r="O28" s="8">
+      <c r="N28" s="8">
         <f t="shared" si="6"/>
-        <v>7093.4671664445468</v>
+        <v>38466.188307020508</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="7"/>
+        <v>6.1489450269234483E-2</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="5"/>
+        <v>2164.5974956283335</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2039</v>
       </c>
@@ -4785,58 +4870,61 @@
         <v>0.03</v>
       </c>
       <c r="C29" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="9"/>
+        <v>-1259.1673551328633</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="10"/>
+        <v>-1059.6051851000127</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="7"/>
-        <v>-1306.0068708249739</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="4"/>
-        <v>-1008.4652085288519</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="8"/>
-        <v>4442.5780111403155</v>
-      </c>
-      <c r="H29" s="6">
+        <v>4023.8171586076414</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <f t="shared" si="2"/>
         <v>-50334.94973674776</v>
       </c>
-      <c r="K29" s="7">
-        <f t="shared" si="5"/>
+      <c r="L29" s="7">
+        <f t="shared" si="4"/>
         <v>749685.03937992814</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <f t="shared" si="3"/>
         <v>699350.08964318037</v>
       </c>
-      <c r="M29" s="8">
-        <f t="shared" si="9"/>
-        <v>45311.982337543974</v>
-      </c>
-      <c r="N29" s="13">
-        <f t="shared" si="10"/>
-        <v>6.8459990823527619E-2</v>
-      </c>
-      <c r="O29" s="8">
+      <c r="N29" s="8">
         <f t="shared" si="6"/>
-        <v>7837.2711814378818</v>
+        <v>40235.246576603269</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="7"/>
+        <v>6.0789761765384996E-2</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" si="5"/>
+        <v>2760.5354204971845</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>2040</v>
       </c>
@@ -4845,58 +4933,61 @@
         <v>0.03</v>
       </c>
       <c r="C30" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="9"/>
+        <v>-1296.9423757868492</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="10"/>
+        <v>-1091.3933406530132</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="7"/>
-        <v>-1345.1870769497232</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="4"/>
-        <v>-1038.7191647847176</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="8"/>
-        <v>4575.8553514745254</v>
-      </c>
-      <c r="H30" s="6">
+        <v>4144.531673365871</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <f t="shared" si="2"/>
         <v>-34139.485600051208</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="5"/>
+      <c r="L30" s="7">
+        <f t="shared" si="4"/>
         <v>772175.59056132601</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <f t="shared" si="3"/>
         <v>738036.10496127477</v>
       </c>
-      <c r="M30" s="8">
-        <f t="shared" si="9"/>
-        <v>47289.404634975421</v>
-      </c>
-      <c r="N30" s="13">
-        <f t="shared" si="10"/>
-        <v>6.7619072815309475E-2</v>
-      </c>
-      <c r="O30" s="8">
+      <c r="N30" s="8">
         <f t="shared" si="6"/>
-        <v>8603.3893168810155</v>
+        <v>42060.36680120651</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="7"/>
+        <v>6.0142076799713264E-2</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="5"/>
+        <v>3374.3514831121065</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2041</v>
       </c>
@@ -4905,58 +4996,61 @@
         <v>0.03</v>
       </c>
       <c r="C31" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="9"/>
+        <v>-1335.8506470604548</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="10"/>
+        <v>-1124.1351408726036</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="7"/>
-        <v>-1385.542689258215</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="4"/>
-        <v>-1069.8807397282592</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="8"/>
-        <v>4713.1310120187609</v>
-      </c>
-      <c r="H31" s="6">
+        <v>4268.8676235668472</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="2"/>
         <v>-17367.998152466684</v>
       </c>
-      <c r="K31" s="7">
-        <f t="shared" si="5"/>
+      <c r="L31" s="7">
+        <f t="shared" si="4"/>
         <v>795340.8582781658</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M31" s="7">
         <f t="shared" si="3"/>
         <v>777972.86012569908</v>
       </c>
-      <c r="M31" s="8">
-        <f t="shared" si="9"/>
-        <v>49329.246160811745</v>
-      </c>
-      <c r="N31" s="13">
-        <f t="shared" si="10"/>
-        <v>6.6838527043876911E-2</v>
-      </c>
-      <c r="O31" s="8">
+      <c r="N31" s="8">
         <f t="shared" si="6"/>
-        <v>9392.4909963874379</v>
+        <v>43943.337192029772</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="7"/>
+        <v>5.9540904430868603E-2</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="5"/>
+        <v>4006.5820276054656</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2042</v>
       </c>
@@ -4965,58 +5059,61 @@
         <v>0.03</v>
       </c>
       <c r="C32" s="5">
+        <f t="shared" si="8"/>
+        <v>-1475</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="9"/>
+        <v>-1375.9261664722685</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="10"/>
+        <v>-1157.8591950987818</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="11"/>
-        <v>-1475</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="7"/>
-        <v>-1427.1089699359616</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="4"/>
-        <v>-1101.9771619201069</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="8"/>
-        <v>4854.5249423793239</v>
-      </c>
-      <c r="H32" s="6">
+        <v>4396.9336522738531</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="5"/>
+      <c r="L32" s="7">
+        <f t="shared" si="4"/>
         <v>819201.08402651083</v>
       </c>
-      <c r="L32" s="7">
+      <c r="M32" s="7">
         <f t="shared" si="3"/>
         <v>819201.08402651083</v>
       </c>
-      <c r="M32" s="8">
-        <f t="shared" si="9"/>
-        <v>51433.489627090807</v>
-      </c>
-      <c r="N32" s="13">
-        <f t="shared" si="10"/>
-        <v>6.6112190107480831E-2</v>
-      </c>
-      <c r="O32" s="8">
+      <c r="N32" s="8">
         <f t="shared" si="6"/>
-        <v>10205.265726279062</v>
+        <v>45886.003389245379</v>
+      </c>
+      <c r="O32" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8981496323446889E-2</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="5"/>
+        <v>4657.7794884336363</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2043</v>
       </c>
@@ -5031,42 +5128,45 @@
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="7"/>
-        <v>-1469.9222390340406</v>
+        <f t="shared" si="9"/>
+        <v>-1417.2039514664366</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="10"/>
+        <v>-1192.5949709517454</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="11"/>
+        <v>4528.8416618420688</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
         <f t="shared" si="4"/>
-        <v>-1135.0364767777103</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="8"/>
-        <v>5000.1606906507041</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="5"/>
         <v>843777.11654730618</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M33" s="7">
         <f t="shared" si="3"/>
         <v>843777.11654730618</v>
       </c>
-      <c r="M33" s="8">
-        <f t="shared" si="9"/>
-        <v>53318.45621886279</v>
-      </c>
-      <c r="N33" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O33" s="8">
+      <c r="N33" s="8">
         <f t="shared" si="6"/>
-        <v>28742.423698067436</v>
+        <v>47604.545393881999</v>
+      </c>
+      <c r="O33" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787601E-2</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="5"/>
+        <v>23028.512873086642</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2044</v>
       </c>
@@ -5081,42 +5181,45 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="7"/>
-        <v>-1514.0199062050617</v>
+        <f t="shared" si="9"/>
+        <v>-1459.7200700104297</v>
       </c>
       <c r="F34" s="5">
+        <f t="shared" si="10"/>
+        <v>-1228.3728200802977</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="11"/>
+        <v>4664.7069116973307</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
         <f t="shared" si="4"/>
-        <v>-1169.0875710810417</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="8"/>
-        <v>5150.1655113702254</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <f t="shared" si="5"/>
         <v>869090.43004372541</v>
       </c>
-      <c r="L34" s="7">
+      <c r="M34" s="7">
         <f t="shared" si="3"/>
         <v>869090.43004372541</v>
       </c>
-      <c r="M34" s="8">
-        <f t="shared" si="9"/>
-        <v>54918.009905428691</v>
-      </c>
-      <c r="N34" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000047E-2</v>
-      </c>
-      <c r="O34" s="8">
+      <c r="N34" s="8">
         <f t="shared" si="6"/>
-        <v>29604.696409009463</v>
+        <v>49032.681755698468</v>
+      </c>
+      <c r="O34" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787608E-2</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" si="5"/>
+        <v>23719.368259279239</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2045</v>
       </c>
@@ -5131,42 +5234,45 @@
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="7"/>
-        <v>-1559.4405033912135</v>
+        <f t="shared" si="9"/>
+        <v>-1503.5116721107427</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
-        <v>-1204.160198213473</v>
+        <v>-1265.2240046827067</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="8"/>
-        <v>5304.6704767113324</v>
-      </c>
-      <c r="J35" s="7">
+        <f t="shared" si="11"/>
+        <v>4804.6481190482509</v>
+      </c>
+      <c r="H35" s="5">
         <v>0</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" ref="K35:K71" si="13">K34*(1+B35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" ref="L35:L71" si="13">L34*(1+B35)</f>
         <v>895163.14294503722</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <f t="shared" si="3"/>
         <v>895163.14294503722</v>
       </c>
-      <c r="M35" s="8">
-        <f t="shared" si="9"/>
-        <v>56565.550202591563</v>
-      </c>
-      <c r="N35" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000061E-2</v>
-      </c>
-      <c r="O35" s="8">
+      <c r="N35" s="8">
         <f t="shared" si="6"/>
-        <v>30492.837301279753</v>
+        <v>50503.662208369431</v>
+      </c>
+      <c r="O35" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787615E-2</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" si="5"/>
+        <v>24430.949307057621</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2046</v>
       </c>
@@ -5181,42 +5287,45 @@
         <v>0</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="7"/>
-        <v>-1606.22371849295</v>
+        <f t="shared" si="9"/>
+        <v>-1548.617022274065</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="12"/>
-        <v>-1240.2850041598772</v>
+        <v>-1303.1807248231878</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="8"/>
-        <v>5463.8105910126724</v>
-      </c>
-      <c r="J36" s="7">
+        <f t="shared" si="11"/>
+        <v>4948.7875626196983</v>
+      </c>
+      <c r="H36" s="5">
         <v>0</v>
       </c>
       <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
         <f t="shared" si="13"/>
         <v>922018.0372333884</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <f t="shared" si="3"/>
         <v>922018.0372333884</v>
       </c>
-      <c r="M36" s="8">
-        <f t="shared" si="9"/>
-        <v>58262.516708669318</v>
-      </c>
-      <c r="N36" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
-      </c>
-      <c r="O36" s="8">
+      <c r="N36" s="8">
         <f t="shared" si="6"/>
-        <v>31407.622420318141</v>
+        <v>52018.772074620523</v>
+      </c>
+      <c r="O36" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787629E-2</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="5"/>
+        <v>25163.877786269346</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2047</v>
       </c>
@@ -5231,42 +5340,45 @@
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="7"/>
-        <v>-1654.4104300477386</v>
+        <f t="shared" si="9"/>
+        <v>-1595.0755329422871</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="12"/>
-        <v>-1277.4935542846736</v>
+        <v>-1342.2761465678834</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="8"/>
-        <v>5627.7249087430528</v>
-      </c>
-      <c r="J37" s="7">
+        <f t="shared" si="11"/>
+        <v>5097.251189498289</v>
+      </c>
+      <c r="H37" s="5">
         <v>0</v>
       </c>
       <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
         <f t="shared" si="13"/>
         <v>949678.57835039007</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M37" s="7">
         <f t="shared" si="3"/>
         <v>949678.57835039007</v>
       </c>
-      <c r="M37" s="8">
-        <f t="shared" si="9"/>
-        <v>60010.392209929363</v>
-      </c>
-      <c r="N37" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O37" s="8">
+      <c r="N37" s="8">
         <f t="shared" si="6"/>
-        <v>32349.851092927689</v>
+        <v>53579.3352368591</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" si="7"/>
+        <v>5.811094042978758E-2</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" si="5"/>
+        <v>25918.794119857423</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2048</v>
       </c>
@@ -5281,42 +5393,45 @@
         <v>0</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="7"/>
-        <v>-1704.0427429491708</v>
+        <f t="shared" si="9"/>
+        <v>-1642.9277989305558</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="12"/>
-        <v>-1315.8183609132138</v>
+        <v>-1382.5444309649199</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="8"/>
-        <v>5796.5566560053448</v>
-      </c>
-      <c r="J38" s="7">
+        <f t="shared" si="11"/>
+        <v>5250.1687251832382</v>
+      </c>
+      <c r="H38" s="5">
         <v>0</v>
       </c>
       <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
         <f t="shared" si="13"/>
         <v>978168.93570090178</v>
       </c>
-      <c r="L38" s="7">
+      <c r="M38" s="7">
         <f t="shared" si="3"/>
         <v>978168.93570090178</v>
       </c>
-      <c r="M38" s="8">
-        <f t="shared" si="9"/>
-        <v>61810.703976227232</v>
-      </c>
-      <c r="N38" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000019E-2</v>
-      </c>
-      <c r="O38" s="8">
+      <c r="N38" s="8">
         <f t="shared" si="6"/>
-        <v>33320.346625715523</v>
+        <v>55186.715293964859</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787566E-2</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="5"/>
+        <v>26696.357943453149</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2049</v>
       </c>
@@ -5331,42 +5446,45 @@
         <v>0</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="7"/>
-        <v>-1755.164025237646</v>
+        <f t="shared" si="9"/>
+        <v>-1692.2156328984724</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="12"/>
-        <v>-1355.2929117406102</v>
+        <v>-1424.0207638938675</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="8"/>
-        <v>5970.4533556855049</v>
-      </c>
-      <c r="J39" s="7">
+        <f t="shared" si="11"/>
+        <v>5407.6737869387352</v>
+      </c>
+      <c r="H39" s="5">
         <v>0</v>
       </c>
       <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
         <f t="shared" si="13"/>
         <v>1007514.0037719288</v>
       </c>
-      <c r="L39" s="7">
+      <c r="M39" s="7">
         <f t="shared" si="3"/>
         <v>1007514.0037719288</v>
       </c>
-      <c r="M39" s="8">
-        <f t="shared" si="9"/>
-        <v>63665.025095514036</v>
-      </c>
-      <c r="N39" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000005E-2</v>
-      </c>
-      <c r="O39" s="8">
+      <c r="N39" s="8">
         <f t="shared" si="6"/>
-        <v>34319.957024486983</v>
+        <v>56842.316752783794</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787553E-2</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" si="5"/>
+        <v>27497.248681756741</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2050</v>
       </c>
@@ -5381,42 +5499,45 @@
         <v>0</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="7"/>
-        <v>-1807.8189459947755</v>
+        <f t="shared" si="9"/>
+        <v>-1742.9821018854266</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="12"/>
-        <v>-1395.9516990928284</v>
+        <v>-1466.7413868106835</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="8"/>
-        <v>6149.5669563560705</v>
-      </c>
-      <c r="J40" s="7">
+        <f t="shared" ref="G40:G71" si="14">G39*(1+B39)</f>
+        <v>5569.9040005468978</v>
+      </c>
+      <c r="H40" s="5">
         <v>0</v>
       </c>
       <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
         <f t="shared" si="13"/>
         <v>1037739.4238850868</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <f t="shared" si="3"/>
         <v>1037739.4238850868</v>
       </c>
-      <c r="M40" s="8">
-        <f t="shared" si="9"/>
-        <v>65574.975848379545</v>
-      </c>
-      <c r="N40" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000089E-2</v>
-      </c>
-      <c r="O40" s="8">
+      <c r="N40" s="8">
         <f t="shared" si="6"/>
-        <v>35349.555735221598</v>
+        <v>58547.586255367401</v>
+      </c>
+      <c r="O40" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787643E-2</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" si="5"/>
+        <v>28322.166142209455</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2051</v>
       </c>
@@ -5431,42 +5552,45 @@
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="7"/>
-        <v>-1862.0535143746188</v>
+        <f t="shared" si="9"/>
+        <v>-1795.2715649419895</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="12"/>
-        <v>-1437.8302500656134</v>
+        <v>-1510.743628415004</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="8"/>
-        <v>6334.0539650467526</v>
-      </c>
-      <c r="J41" s="7">
+        <f t="shared" si="14"/>
+        <v>5737.0011205633045</v>
+      </c>
+      <c r="H41" s="5">
         <v>0</v>
       </c>
       <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
         <f t="shared" si="13"/>
         <v>1068871.6066016394</v>
       </c>
-      <c r="L41" s="7">
+      <c r="M41" s="7">
         <f t="shared" si="3"/>
         <v>1068871.6066016394</v>
       </c>
-      <c r="M41" s="8">
-        <f t="shared" si="9"/>
-        <v>67542.225123830882</v>
-      </c>
-      <c r="N41" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O41" s="8">
+      <c r="N41" s="8">
         <f t="shared" si="6"/>
-        <v>36410.042407278248</v>
+        <v>60304.01384302837</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787587E-2</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" si="5"/>
+        <v>29171.831126475736</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2052</v>
       </c>
@@ -5481,42 +5605,45 @@
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="7"/>
-        <v>-1917.9151198058573</v>
+        <f t="shared" si="9"/>
+        <v>-1849.1297118902492</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="12"/>
-        <v>-1480.9651575675819</v>
+        <v>-1556.065937267454</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="8"/>
-        <v>6524.0755839981557</v>
-      </c>
-      <c r="J42" s="7">
+        <f t="shared" si="14"/>
+        <v>5909.1111541802038</v>
+      </c>
+      <c r="H42" s="5">
         <v>0</v>
       </c>
       <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
         <f t="shared" si="13"/>
         <v>1100937.7547996887</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <f t="shared" si="3"/>
         <v>1100937.7547996887</v>
       </c>
-      <c r="M42" s="8">
-        <f t="shared" si="9"/>
-        <v>69568.491877545879</v>
-      </c>
-      <c r="N42" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
-      </c>
-      <c r="O42" s="8">
+      <c r="N42" s="8">
         <f t="shared" si="6"/>
-        <v>37502.343679496596</v>
+        <v>62113.134258319289</v>
+      </c>
+      <c r="O42" s="13">
+        <f t="shared" si="7"/>
+        <v>5.811094042978765E-2</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" si="5"/>
+        <v>30046.98606027001</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2053</v>
       </c>
@@ -5531,42 +5658,45 @@
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="7"/>
-        <v>-1975.4525734000331</v>
+        <f t="shared" si="9"/>
+        <v>-1904.6036032469567</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
-        <v>-1525.3941122946094</v>
+        <v>-1602.7479153854777</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="8"/>
-        <v>6719.7978515181003</v>
-      </c>
-      <c r="J43" s="7">
+        <f t="shared" si="14"/>
+        <v>6086.3844888056101</v>
+      </c>
+      <c r="H43" s="5">
         <v>0</v>
       </c>
       <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
         <f t="shared" si="13"/>
         <v>1133965.8874436794</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M43" s="7">
         <f t="shared" si="3"/>
         <v>1133965.8874436794</v>
       </c>
-      <c r="M43" s="8">
-        <f t="shared" si="9"/>
-        <v>71655.546633872174</v>
-      </c>
-      <c r="N43" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000019E-2</v>
-      </c>
-      <c r="O43" s="8">
+      <c r="N43" s="8">
         <f t="shared" si="6"/>
-        <v>38627.41398988149</v>
+        <v>63976.528286068795</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="7"/>
+        <v>5.811094042978758E-2</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="5"/>
+        <v>30948.395642078111</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2054</v>
       </c>
@@ -5581,42 +5711,45 @@
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="7"/>
-        <v>-2034.7161506020341</v>
+        <f t="shared" si="9"/>
+        <v>-1961.7417113443655</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
-        <v>-1571.1559356634477</v>
+        <v>-1650.8303528470419</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="8"/>
-        <v>6921.3917870636433</v>
-      </c>
-      <c r="J44" s="7">
+        <f t="shared" si="14"/>
+        <v>6268.9760234697787</v>
+      </c>
+      <c r="H44" s="5">
         <v>0</v>
       </c>
       <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
         <f t="shared" si="13"/>
         <v>1167984.8640669899</v>
       </c>
-      <c r="L44" s="7">
+      <c r="M44" s="7">
         <f t="shared" si="3"/>
         <v>1167984.8640669899</v>
       </c>
-      <c r="M44" s="8">
-        <f t="shared" si="9"/>
-        <v>73805.213032888409</v>
-      </c>
-      <c r="N44" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
-      </c>
-      <c r="O44" s="8">
+      <c r="N44" s="8">
         <f t="shared" si="6"/>
-        <v>39786.236409577934</v>
+        <v>65895.824134650931</v>
+      </c>
+      <c r="O44" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787643E-2</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="5"/>
+        <v>31876.847511340453</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2055</v>
       </c>
@@ -5631,42 +5764,45 @@
         <v>0</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="7"/>
-        <v>-2095.7576351200951</v>
+        <f t="shared" si="9"/>
+        <v>-2020.5939626846966</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
-        <v>-1618.2906137333512</v>
+        <v>-1700.3552634324533</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="8"/>
-        <v>7129.033540675553</v>
-      </c>
-      <c r="J45" s="7">
+        <f t="shared" si="14"/>
+        <v>6457.045304173872</v>
+      </c>
+      <c r="H45" s="5">
         <v>0</v>
       </c>
       <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
         <f t="shared" si="13"/>
         <v>1203024.4099889996</v>
       </c>
-      <c r="L45" s="7">
+      <c r="M45" s="7">
         <f t="shared" si="3"/>
         <v>1203024.4099889996</v>
       </c>
-      <c r="M45" s="8">
-        <f t="shared" si="9"/>
-        <v>76019.369423875018</v>
-      </c>
-      <c r="N45" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O45" s="8">
+      <c r="N45" s="8">
         <f t="shared" si="6"/>
-        <v>40979.823501865278</v>
+        <v>67872.698858690404</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787587E-2</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" si="5"/>
+        <v>32833.152936680664</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2056</v>
       </c>
@@ -5681,42 +5817,45 @@
         <v>0</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="7"/>
-        <v>-2158.6303641736981</v>
+        <f t="shared" si="9"/>
+        <v>-2081.2117815652377</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
-        <v>-1666.8393321453518</v>
+        <v>-1751.3659213354269</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="8"/>
-        <v>7342.9045468958202</v>
-      </c>
-      <c r="J46" s="7">
+        <f t="shared" si="14"/>
+        <v>6650.7566632990884</v>
+      </c>
+      <c r="H46" s="5">
         <v>0</v>
       </c>
       <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
         <f t="shared" si="13"/>
         <v>1239115.1422886697</v>
       </c>
-      <c r="L46" s="7">
+      <c r="M46" s="7">
         <f t="shared" si="3"/>
         <v>1239115.1422886697</v>
       </c>
-      <c r="M46" s="8">
-        <f t="shared" si="9"/>
-        <v>78299.950506591354</v>
-      </c>
-      <c r="N46" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
-      </c>
-      <c r="O46" s="8">
+      <c r="N46" s="8">
         <f t="shared" si="6"/>
-        <v>42209.218206921243</v>
+        <v>69908.8798244512</v>
+      </c>
+      <c r="O46" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787657E-2</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" si="5"/>
+        <v>33818.147524781081</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2057</v>
       </c>
@@ -5731,42 +5870,45 @@
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="7"/>
-        <v>-2223.3892750989089</v>
+        <f t="shared" si="9"/>
+        <v>-2143.6481350121949</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
-        <v>-1716.8445121097125</v>
+        <v>-1803.9068989754899</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="8"/>
-        <v>7563.1916833026953</v>
-      </c>
-      <c r="J47" s="7">
+        <f t="shared" si="14"/>
+        <v>6850.2793631980612</v>
+      </c>
+      <c r="H47" s="5">
         <v>0</v>
       </c>
       <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
         <f t="shared" si="13"/>
         <v>1276288.5965573299</v>
       </c>
-      <c r="L47" s="7">
+      <c r="M47" s="7">
         <f t="shared" si="3"/>
         <v>1276288.5965573299</v>
       </c>
-      <c r="M47" s="8">
-        <f t="shared" si="9"/>
-        <v>80648.949021789042</v>
-      </c>
-      <c r="N47" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000061E-2</v>
-      </c>
-      <c r="O47" s="8">
+      <c r="N47" s="8">
         <f t="shared" si="6"/>
-        <v>43475.494753128885</v>
+        <v>72006.14621918468</v>
+      </c>
+      <c r="O47" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787608E-2</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" si="5"/>
+        <v>34832.691950524517</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2058</v>
       </c>
@@ -5781,42 +5923,45 @@
         <v>0</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="7"/>
-        <v>-2290.0909533518761</v>
+        <f t="shared" si="9"/>
+        <v>-2207.9575790625609</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="12"/>
-        <v>-1768.3498474730038</v>
+        <v>-1858.0241059447546</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="8"/>
-        <v>7790.0874338017766</v>
-      </c>
-      <c r="J48" s="7">
+        <f t="shared" si="14"/>
+        <v>7055.7877440940028</v>
+      </c>
+      <c r="H48" s="5">
         <v>0</v>
       </c>
       <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
         <f t="shared" si="13"/>
         <v>1314577.2544540497</v>
       </c>
-      <c r="L48" s="7">
+      <c r="M48" s="7">
         <f t="shared" si="3"/>
         <v>1314577.2544540497</v>
       </c>
-      <c r="M48" s="8">
-        <f t="shared" si="9"/>
-        <v>83068.417492442633</v>
-      </c>
-      <c r="N48" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
-      </c>
-      <c r="O48" s="8">
+      <c r="N48" s="8">
         <f t="shared" si="6"/>
-        <v>44779.75959572276</v>
+        <v>74166.330605760115</v>
+      </c>
+      <c r="O48" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787518E-2</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="5"/>
+        <v>35877.672709040242</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2059</v>
       </c>
@@ -5831,42 +5976,45 @@
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="7"/>
-        <v>-2358.7936819524325</v>
+        <f t="shared" si="9"/>
+        <v>-2274.1963064344377</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
-        <v>-1821.4003428971939</v>
+        <v>-1913.7648291230973</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="8"/>
-        <v>8023.7900568158302</v>
-      </c>
-      <c r="J49" s="7">
+        <f t="shared" si="14"/>
+        <v>7267.4613764168234</v>
+      </c>
+      <c r="H49" s="5">
         <v>0</v>
       </c>
       <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
         <f t="shared" si="13"/>
         <v>1354014.5720876714</v>
       </c>
-      <c r="L49" s="7">
+      <c r="M49" s="7">
         <f t="shared" si="3"/>
         <v>1354014.5720876714</v>
       </c>
-      <c r="M49" s="8">
-        <f t="shared" si="9"/>
-        <v>85560.470017216066</v>
-      </c>
-      <c r="N49" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
-      </c>
-      <c r="O49" s="8">
+      <c r="N49" s="8">
         <f t="shared" si="6"/>
-        <v>46123.152383594439</v>
+        <v>76391.320523933085</v>
+      </c>
+      <c r="O49" s="13">
+        <f t="shared" si="7"/>
+        <v>5.811094042978765E-2</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" si="5"/>
+        <v>36954.002890311458</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2060</v>
       </c>
@@ -5881,42 +6029,45 @@
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="7"/>
-        <v>-2429.5574924110056</v>
+        <f t="shared" si="9"/>
+        <v>-2342.422195627471</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="12"/>
-        <v>-1876.0423531841097</v>
+        <v>-1971.1777739967904</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="8"/>
-        <v>8264.5037585203045</v>
-      </c>
-      <c r="J50" s="7">
+        <f t="shared" si="14"/>
+        <v>7485.485217709328</v>
+      </c>
+      <c r="H50" s="5">
         <v>0</v>
       </c>
       <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
         <f t="shared" si="13"/>
         <v>1394635.0092503016</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <f t="shared" si="3"/>
         <v>1394635.0092503016</v>
       </c>
-      <c r="M50" s="8">
-        <f t="shared" si="9"/>
-        <v>88127.284117732517</v>
-      </c>
-      <c r="N50" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
-      </c>
-      <c r="O50" s="8">
+      <c r="N50" s="8">
         <f t="shared" si="6"/>
-        <v>47506.846955102264</v>
+        <v>78683.060139651061</v>
+      </c>
+      <c r="O50" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787629E-2</v>
+      </c>
+      <c r="P50" s="8">
+        <f t="shared" si="5"/>
+        <v>38062.622977020801</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>2061</v>
       </c>
@@ -5931,42 +6082,45 @@
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="7"/>
-        <v>-2502.4442171833357</v>
+        <f t="shared" si="9"/>
+        <v>-2412.6948614962953</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="12"/>
-        <v>-1932.3236237796332</v>
+        <v>-2030.3131072166941</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="8"/>
-        <v>8512.4388712759137</v>
-      </c>
-      <c r="J51" s="7">
+        <f t="shared" si="14"/>
+        <v>7710.0497742406078</v>
+      </c>
+      <c r="H51" s="5">
         <v>0</v>
       </c>
       <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
         <f t="shared" si="13"/>
         <v>1436474.0595278107</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M51" s="7">
         <f t="shared" si="3"/>
         <v>1436474.0595278107</v>
       </c>
-      <c r="M51" s="8">
-        <f t="shared" si="9"/>
-        <v>90771.10264126437</v>
-      </c>
-      <c r="N51" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999978E-2</v>
-      </c>
-      <c r="O51" s="8">
+      <c r="N51" s="8">
         <f t="shared" si="6"/>
-        <v>48932.052363755342</v>
+        <v>81043.551943840459</v>
+      </c>
+      <c r="O51" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787532E-2</v>
+      </c>
+      <c r="P51" s="8">
+        <f t="shared" si="5"/>
+        <v>39204.501666331424</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2062</v>
       </c>
@@ -5981,42 +6135,45 @@
         <v>0</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="7"/>
-        <v>-2577.5175436988357</v>
+        <f t="shared" si="9"/>
+        <v>-2485.0757073411842</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="12"/>
-        <v>-1990.2933324930223</v>
+        <v>-2091.2225004331949</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="8"/>
-        <v>8767.8120374141909</v>
-      </c>
-      <c r="J52" s="7">
+        <f t="shared" si="14"/>
+        <v>7941.3512674678259</v>
+      </c>
+      <c r="H52" s="5">
         <v>0</v>
       </c>
       <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
         <f t="shared" si="13"/>
         <v>1479568.281313645</v>
       </c>
-      <c r="L52" s="7">
+      <c r="M52" s="7">
         <f t="shared" si="3"/>
         <v>1479568.281313645</v>
       </c>
-      <c r="M52" s="8">
-        <f t="shared" si="9"/>
-        <v>93494.2357205023</v>
-      </c>
-      <c r="N52" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999978E-2</v>
-      </c>
-      <c r="O52" s="8">
+      <c r="N52" s="8">
         <f t="shared" si="6"/>
-        <v>50400.013934668001</v>
+        <v>83474.85850215565</v>
+      </c>
+      <c r="O52" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787518E-2</v>
+      </c>
+      <c r="P52" s="8">
+        <f t="shared" si="5"/>
+        <v>40380.636716321358</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2063</v>
       </c>
@@ -6031,42 +6188,45 @@
         <v>0</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="7"/>
-        <v>-2654.8430700098006</v>
+        <f t="shared" si="9"/>
+        <v>-2559.6279785614197</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="12"/>
-        <v>-2050.0021324678128</v>
+        <v>-2153.9591754461908</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="8"/>
-        <v>9030.8463985366161</v>
-      </c>
-      <c r="J53" s="7">
+        <f t="shared" si="14"/>
+        <v>8179.5918054918611</v>
+      </c>
+      <c r="H53" s="5">
         <v>0</v>
       </c>
       <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
         <f t="shared" si="13"/>
         <v>1523955.3297530543</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M53" s="7">
         <f t="shared" si="3"/>
         <v>1523955.3297530543</v>
       </c>
-      <c r="M53" s="8">
-        <f t="shared" si="9"/>
-        <v>96299.062792117387</v>
-      </c>
-      <c r="N53" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
-      </c>
-      <c r="O53" s="8">
+      <c r="N53" s="8">
         <f t="shared" si="6"/>
-        <v>51912.014352708036</v>
+        <v>85979.104257220359</v>
+      </c>
+      <c r="O53" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787546E-2</v>
+      </c>
+      <c r="P53" s="8">
+        <f t="shared" si="5"/>
+        <v>41592.055817811008</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2064</v>
       </c>
@@ -6081,42 +6241,45 @@
         <v>0</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="7"/>
-        <v>-2734.4883621100948</v>
+        <f t="shared" si="9"/>
+        <v>-2636.4168179182625</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="12"/>
-        <v>-2111.502196441847</v>
+        <v>-2218.5779507095767</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="8"/>
-        <v>9301.771790492714</v>
-      </c>
-      <c r="J54" s="7">
+        <f t="shared" si="14"/>
+        <v>8424.9795596566164</v>
+      </c>
+      <c r="H54" s="5">
         <v>0</v>
       </c>
       <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
         <f t="shared" si="13"/>
         <v>1569673.989645646</v>
       </c>
-      <c r="L54" s="7">
+      <c r="M54" s="7">
         <f t="shared" si="3"/>
         <v>1569673.989645646</v>
       </c>
-      <c r="M54" s="8">
-        <f t="shared" si="9"/>
-        <v>99188.034675880917</v>
-      </c>
-      <c r="N54" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000005E-2</v>
-      </c>
-      <c r="O54" s="8">
+      <c r="N54" s="8">
         <f t="shared" si="6"/>
-        <v>53469.37478328927</v>
+        <v>88558.477384936967</v>
+      </c>
+      <c r="O54" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787539E-2</v>
+      </c>
+      <c r="P54" s="8">
+        <f t="shared" si="5"/>
+        <v>42839.817492345326</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>2065</v>
       </c>
@@ -6131,42 +6294,45 @@
         <v>0</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="7"/>
-        <v>-2816.5230129733977</v>
+        <f t="shared" si="9"/>
+        <v>-2715.5093224558104</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="12"/>
-        <v>-2174.8472623351026</v>
+        <v>-2285.1352892308641</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="8"/>
-        <v>9580.8249442074957</v>
-      </c>
-      <c r="J55" s="7">
+        <f t="shared" si="14"/>
+        <v>8677.7289464463156</v>
+      </c>
+      <c r="H55" s="5">
         <v>0</v>
       </c>
       <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
         <f t="shared" si="13"/>
         <v>1616764.2093350154</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M55" s="7">
         <f t="shared" si="3"/>
         <v>1616764.2093350154</v>
       </c>
-      <c r="M55" s="8">
-        <f t="shared" si="9"/>
-        <v>102163.67571615739</v>
-      </c>
-      <c r="N55" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O55" s="8">
+      <c r="N55" s="8">
         <f t="shared" si="6"/>
-        <v>55073.45602678795</v>
+        <v>91215.231706485123</v>
+      </c>
+      <c r="O55" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787573E-2</v>
+      </c>
+      <c r="P55" s="8">
+        <f t="shared" si="5"/>
+        <v>44125.012017115689</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>2066</v>
       </c>
@@ -6181,42 +6347,45 @@
         <v>0</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="7"/>
-        <v>-2901.0187033625998</v>
+        <f t="shared" si="9"/>
+        <v>-2796.974602129485</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="12"/>
-        <v>-2240.0926802051558</v>
+        <v>-2353.6893479077903</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="8"/>
-        <v>9868.24969253372</v>
-      </c>
-      <c r="J56" s="7">
+        <f t="shared" si="14"/>
+        <v>8938.0608148397059</v>
+      </c>
+      <c r="H56" s="5">
         <v>0</v>
       </c>
       <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
         <f t="shared" si="13"/>
         <v>1665267.1356150659</v>
       </c>
-      <c r="L56" s="7">
+      <c r="M56" s="7">
         <f t="shared" si="3"/>
         <v>1665267.1356150659</v>
       </c>
-      <c r="M56" s="8">
-        <f t="shared" si="9"/>
-        <v>105228.58598764212</v>
-      </c>
-      <c r="N56" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O56" s="8">
+      <c r="N56" s="8">
         <f t="shared" si="6"/>
-        <v>56725.659707591578</v>
+        <v>93951.688657679711</v>
+      </c>
+      <c r="O56" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787587E-2</v>
+      </c>
+      <c r="P56" s="8">
+        <f t="shared" si="5"/>
+        <v>45448.762377629173</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>2067</v>
       </c>
@@ -6231,42 +6400,45 @@
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="7"/>
-        <v>-2988.0492644634778</v>
+        <f t="shared" si="9"/>
+        <v>-2880.8838401933695</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="12"/>
-        <v>-2307.2954606113108</v>
+        <v>-2424.3000283450242</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="8"/>
-        <v>10164.297183309733</v>
-      </c>
-      <c r="J57" s="7">
+        <f t="shared" si="14"/>
+        <v>9206.2026392848966</v>
+      </c>
+      <c r="H57" s="5">
         <v>0</v>
       </c>
       <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
         <f t="shared" si="13"/>
         <v>1715225.1496835179</v>
       </c>
-      <c r="L57" s="7">
+      <c r="M57" s="7">
         <f t="shared" si="3"/>
         <v>1715225.1496835179</v>
       </c>
-      <c r="M57" s="8">
-        <f t="shared" si="9"/>
-        <v>108385.44356727127</v>
-      </c>
-      <c r="N57" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999964E-2</v>
-      </c>
-      <c r="O57" s="8">
+      <c r="N57" s="8">
         <f t="shared" si="6"/>
-        <v>58427.429498819329</v>
+        <v>96770.239317409985</v>
+      </c>
+      <c r="O57" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787518E-2</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" si="5"/>
+        <v>46812.225248958035</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>2068</v>
       </c>
@@ -6281,42 +6453,45 @@
         <v>0</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="7"/>
-        <v>-3077.6907423973821</v>
+        <f t="shared" si="9"/>
+        <v>-2967.3103553991705</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="12"/>
-        <v>-2376.5143244296501</v>
+        <v>-2497.0290291953752</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="8"/>
-        <v>10469.226098809026</v>
-      </c>
-      <c r="J58" s="7">
+        <f t="shared" si="14"/>
+        <v>9482.3887184634441</v>
+      </c>
+      <c r="H58" s="5">
         <v>0</v>
       </c>
       <c r="K58" s="7">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
         <f t="shared" si="13"/>
         <v>1766681.9041740235</v>
       </c>
-      <c r="L58" s="7">
+      <c r="M58" s="7">
         <f t="shared" si="3"/>
         <v>1766681.9041740235</v>
       </c>
-      <c r="M58" s="8">
-        <f t="shared" si="9"/>
-        <v>111637.0068742896</v>
-      </c>
-      <c r="N58" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000075E-2</v>
-      </c>
-      <c r="O58" s="8">
+      <c r="N58" s="8">
         <f t="shared" si="6"/>
-        <v>60180.252383783925</v>
+        <v>99673.346496932456</v>
+      </c>
+      <c r="O58" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787615E-2</v>
+      </c>
+      <c r="P58" s="8">
+        <f t="shared" si="5"/>
+        <v>48216.592006426785</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>2069</v>
       </c>
@@ -6331,42 +6506,45 @@
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="7"/>
-        <v>-3170.0214646693034</v>
+        <f t="shared" si="9"/>
+        <v>-3056.3296660611459</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="12"/>
-        <v>-2447.8097541625398</v>
+        <v>-2571.9399000712365</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="8"/>
-        <v>10783.302881773297</v>
-      </c>
-      <c r="J59" s="7">
+        <f t="shared" si="14"/>
+        <v>9766.8603800173478</v>
+      </c>
+      <c r="H59" s="5">
         <v>0</v>
       </c>
       <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
         <f t="shared" si="13"/>
         <v>1819682.3612992442</v>
       </c>
-      <c r="L59" s="7">
+      <c r="M59" s="7">
         <f t="shared" si="3"/>
         <v>1819682.3612992442</v>
       </c>
-      <c r="M59" s="8">
-        <f t="shared" si="9"/>
-        <v>114986.11708051813</v>
-      </c>
-      <c r="N59" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999978E-2</v>
-      </c>
-      <c r="O59" s="8">
+      <c r="N59" s="8">
         <f t="shared" si="6"/>
-        <v>61985.659955297451</v>
+        <v>102663.54689184026</v>
+      </c>
+      <c r="O59" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787518E-2</v>
+      </c>
+      <c r="P59" s="8">
+        <f t="shared" si="5"/>
+        <v>49663.089766619581</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>2070</v>
       </c>
@@ -6381,42 +6559,45 @@
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="7"/>
-        <v>-3265.1221086093828</v>
+        <f t="shared" si="9"/>
+        <v>-3148.0195560429802</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="12"/>
-        <v>-2521.2440467874162</v>
+        <v>-2649.0980970733735</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="8"/>
-        <v>11106.801968226497</v>
-      </c>
-      <c r="J60" s="7">
+        <f t="shared" si="14"/>
+        <v>10059.866191417868</v>
+      </c>
+      <c r="H60" s="5">
         <v>0</v>
       </c>
       <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
         <f t="shared" si="13"/>
         <v>1874272.8321382217</v>
       </c>
-      <c r="L60" s="7">
+      <c r="M60" s="7">
         <f t="shared" si="3"/>
         <v>1874272.8321382217</v>
       </c>
-      <c r="M60" s="8">
-        <f t="shared" si="9"/>
-        <v>118435.70059293386</v>
-      </c>
-      <c r="N60" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000089E-2</v>
-      </c>
-      <c r="O60" s="8">
+      <c r="N60" s="8">
         <f t="shared" si="6"/>
-        <v>63845.229753956366</v>
+        <v>105743.45329859566</v>
+      </c>
+      <c r="O60" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787622E-2</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" si="5"/>
+        <v>51152.982459618172</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2071</v>
       </c>
@@ -6431,42 +6612,45 @@
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="7"/>
-        <v>-3363.0757718676646</v>
+        <f t="shared" si="9"/>
+        <v>-3242.4601427242696</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="12"/>
-        <v>-2596.8813681910387</v>
+        <v>-2728.5710399855748</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="8"/>
-        <v>11440.006027273292</v>
-      </c>
-      <c r="J61" s="7">
+        <f t="shared" si="14"/>
+        <v>10361.662177160404</v>
+      </c>
+      <c r="H61" s="5">
         <v>0</v>
       </c>
       <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
         <f t="shared" si="13"/>
         <v>1930501.0171023684</v>
       </c>
-      <c r="L61" s="7">
+      <c r="M61" s="7">
         <f t="shared" si="3"/>
         <v>1930501.0171023684</v>
       </c>
-      <c r="M61" s="8">
-        <f t="shared" si="9"/>
-        <v>121988.77161072177</v>
-      </c>
-      <c r="N61" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000019E-2</v>
-      </c>
-      <c r="O61" s="8">
+      <c r="N61" s="8">
         <f t="shared" si="6"/>
-        <v>65760.586646575073</v>
+        <v>108915.75689755341</v>
+      </c>
+      <c r="O61" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787553E-2</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" si="5"/>
+        <v>52687.571933406711</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>2072</v>
       </c>
@@ -6481,42 +6665,45 @@
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="7"/>
-        <v>-3463.9680450236947</v>
+        <f t="shared" si="9"/>
+        <v>-3339.7339470059978</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="12"/>
-        <v>-2674.78780923677</v>
+        <v>-2810.4281711851422</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="8"/>
-        <v>11783.206208091491</v>
-      </c>
-      <c r="J62" s="7">
+        <f t="shared" si="14"/>
+        <v>10672.512042475217</v>
+      </c>
+      <c r="H62" s="5">
         <v>0</v>
       </c>
       <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
         <f t="shared" si="13"/>
         <v>1988416.0476154394</v>
       </c>
-      <c r="L62" s="7">
+      <c r="M62" s="7">
         <f t="shared" si="3"/>
         <v>1988416.0476154394</v>
       </c>
-      <c r="M62" s="8">
-        <f t="shared" si="9"/>
-        <v>125648.4347590433</v>
-      </c>
-      <c r="N62" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999964E-2</v>
-      </c>
-      <c r="O62" s="8">
+      <c r="N62" s="8">
         <f t="shared" si="6"/>
-        <v>67733.404245972313</v>
+        <v>112183.22960447991</v>
+      </c>
+      <c r="O62" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787504E-2</v>
+      </c>
+      <c r="P62" s="8">
+        <f t="shared" si="5"/>
+        <v>54268.199091408926</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>2073</v>
       </c>
@@ -6531,42 +6718,45 @@
         <v>0</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="7"/>
-        <v>-3567.8870863744055</v>
+        <f t="shared" si="9"/>
+        <v>-3439.9259654161779</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="12"/>
-        <v>-2755.031443513873</v>
+        <v>-2894.7410163206964</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="8"/>
-        <v>12136.702394334236</v>
-      </c>
-      <c r="J63" s="7">
+        <f t="shared" si="14"/>
+        <v>10992.687403749473</v>
+      </c>
+      <c r="H63" s="5">
         <v>0</v>
       </c>
       <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7">
         <f t="shared" si="13"/>
         <v>2048068.5290439026</v>
       </c>
-      <c r="L63" s="7">
+      <c r="M63" s="7">
         <f t="shared" si="3"/>
         <v>2048068.5290439026</v>
       </c>
-      <c r="M63" s="8">
-        <f t="shared" si="9"/>
-        <v>129417.88780181474</v>
-      </c>
-      <c r="N63" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000033E-2</v>
-      </c>
-      <c r="O63" s="8">
+      <c r="N63" s="8">
         <f t="shared" si="6"/>
-        <v>69765.406373351492</v>
+        <v>115548.72649261443</v>
+      </c>
+      <c r="O63" s="13">
+        <f t="shared" si="7"/>
+        <v>5.811094042978756E-2</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="5"/>
+        <v>55896.245064151175</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>2074</v>
       </c>
@@ -6581,42 +6771,45 @@
         <v>0</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="7"/>
-        <v>-3674.9236989656379</v>
+        <f t="shared" si="9"/>
+        <v>-3543.1237443786631</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="12"/>
-        <v>-2837.6823868192891</v>
+        <v>-2981.5832468103172</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="8"/>
-        <v>12500.803466164263</v>
-      </c>
-      <c r="J64" s="7">
+        <f t="shared" si="14"/>
+        <v>11322.468025861957</v>
+      </c>
+      <c r="H64" s="5">
         <v>0</v>
       </c>
       <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7">
         <f t="shared" si="13"/>
         <v>2109510.5849152198</v>
       </c>
-      <c r="L64" s="7">
+      <c r="M64" s="7">
         <f t="shared" si="3"/>
         <v>2109510.5849152198</v>
       </c>
-      <c r="M64" s="8">
-        <f t="shared" si="9"/>
-        <v>133300.42443586921</v>
-      </c>
-      <c r="N64" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000047E-2</v>
-      </c>
-      <c r="O64" s="8">
+      <c r="N64" s="8">
         <f t="shared" si="6"/>
-        <v>71858.368564552031</v>
+        <v>119015.18828739288</v>
+      </c>
+      <c r="O64" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787573E-2</v>
+      </c>
+      <c r="P64" s="8">
+        <f t="shared" si="5"/>
+        <v>57573.132416075721</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>2075</v>
       </c>
@@ -6631,42 +6824,45 @@
         <v>0</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="7"/>
-        <v>-3785.1714099346073</v>
+        <f t="shared" si="9"/>
+        <v>-3649.4174567100231</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="12"/>
-        <v>-2922.812858423868</v>
+        <v>-3071.0307442146268</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="8"/>
-        <v>12875.827570149191</v>
-      </c>
-      <c r="J65" s="7">
+        <f t="shared" si="14"/>
+        <v>11662.142066637816</v>
+      </c>
+      <c r="H65" s="5">
         <v>0</v>
       </c>
       <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
         <f t="shared" si="13"/>
         <v>2172795.9024626766</v>
       </c>
-      <c r="L65" s="7">
+      <c r="M65" s="7">
         <f t="shared" si="3"/>
         <v>2172795.9024626766</v>
       </c>
-      <c r="M65" s="8">
-        <f t="shared" si="9"/>
-        <v>137299.43716894541</v>
-      </c>
-      <c r="N65" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085920000000103E-2</v>
-      </c>
-      <c r="O65" s="8">
+      <c r="N65" s="8">
         <f t="shared" si="6"/>
-        <v>74014.119621488586</v>
+        <v>122585.64393601482</v>
+      </c>
+      <c r="O65" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787643E-2</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="5"/>
+        <v>59300.326388558002</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>2076</v>
       </c>
@@ -6681,42 +6877,45 @@
         <v>0</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="7"/>
-        <v>-3898.7265522326456</v>
+        <f t="shared" si="9"/>
+        <v>-3758.8999804113237</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="12"/>
-        <v>-3010.497244176584</v>
+        <v>-3163.1616665410656</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="8"/>
-        <v>13262.102397253668</v>
-      </c>
-      <c r="J66" s="7">
+        <f t="shared" si="14"/>
+        <v>12012.006328636951</v>
+      </c>
+      <c r="H66" s="5">
         <v>0</v>
       </c>
       <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
         <f t="shared" si="13"/>
         <v>2237979.7795365569</v>
       </c>
-      <c r="L66" s="7">
-        <f t="shared" ref="L66:L71" si="14">J66+K66</f>
+      <c r="M66" s="7">
+        <f t="shared" ref="M66:M71" si="15">K66+L66</f>
         <v>2237979.7795365569</v>
       </c>
-      <c r="M66" s="8">
-        <f t="shared" si="9"/>
-        <v>141418.42028401355</v>
-      </c>
-      <c r="N66" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
-      </c>
-      <c r="O66" s="8">
+      <c r="N66" s="8">
         <f t="shared" si="6"/>
-        <v>76234.54321013327</v>
+        <v>126263.21325409503</v>
+      </c>
+      <c r="O66" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787525E-2</v>
+      </c>
+      <c r="P66" s="8">
+        <f t="shared" si="5"/>
+        <v>61079.336180214741</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>2077</v>
       </c>
@@ -6731,42 +6930,45 @@
         <v>0</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="7"/>
-        <v>-4015.6883487996251</v>
+        <f t="shared" si="9"/>
+        <v>-3871.6669798236635</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="12"/>
-        <v>-3100.8121615018817</v>
+        <v>-3258.0565165372977</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="8"/>
-        <v>13659.965469171279</v>
-      </c>
-      <c r="J67" s="7">
+        <f t="shared" si="14"/>
+        <v>12372.366518496061</v>
+      </c>
+      <c r="H67" s="5">
         <v>0</v>
       </c>
       <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
         <f t="shared" si="13"/>
         <v>2305119.1729226536</v>
       </c>
-      <c r="L67" s="7">
-        <f t="shared" si="14"/>
+      <c r="M67" s="7">
+        <f t="shared" si="15"/>
         <v>2305119.1729226536</v>
       </c>
-      <c r="M67" s="8">
-        <f t="shared" si="9"/>
-        <v>145660.97289253396</v>
-      </c>
-      <c r="N67" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5085919999999992E-2</v>
-      </c>
-      <c r="O67" s="8">
-        <f t="shared" ref="O67:O71" si="15">12*(C67+D67+E67+F67+G67)</f>
-        <v>78521.579506437265</v>
+      <c r="N67" s="8">
+        <f t="shared" si="6"/>
+        <v>130051.1096517179</v>
+      </c>
+      <c r="O67" s="13">
+        <f t="shared" si="7"/>
+        <v>5.8110940429787532E-2</v>
+      </c>
+      <c r="P67" s="8">
+        <f t="shared" ref="P67:P71" si="16">12*(C67+D67+E67+F67+G67)+H67</f>
+        <v>62911.716265621202</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>2078</v>
       </c>
@@ -6781,42 +6983,45 @@
         <v>0</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" ref="E68:E71" si="16">E67*(1+B68)</f>
-        <v>-4136.1589992636136</v>
+        <f t="shared" ref="E68:E71" si="17">E67*(1+B68)</f>
+        <v>-3987.8169892183737</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
-        <v>-3193.8365263469382</v>
+        <v>-3355.7982120334168</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G71" si="17">G67*(1+B67)</f>
-        <v>14069.764433246417</v>
-      </c>
-      <c r="J68" s="7">
+        <f t="shared" si="14"/>
+        <v>12743.537514050942</v>
+      </c>
+      <c r="H68" s="5">
         <v>0</v>
       </c>
       <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
         <f t="shared" si="13"/>
         <v>2374272.7481103335</v>
       </c>
-      <c r="L68" s="7">
-        <f t="shared" si="14"/>
+      <c r="M68" s="7">
+        <f t="shared" si="15"/>
         <v>2374272.7481103335</v>
       </c>
-      <c r="M68" s="8">
-        <f t="shared" ref="M68:M71" si="18">L68-L67+12*(C68+D68+E68+F68+G68)</f>
-        <v>150030.80207931023</v>
-      </c>
-      <c r="N68" s="13">
-        <f t="shared" ref="N68:N71" si="19">M68/L67</f>
-        <v>6.5085920000000103E-2</v>
-      </c>
-      <c r="O68" s="8">
-        <f t="shared" si="15"/>
-        <v>80877.226891630387</v>
+      <c r="N68" s="8">
+        <f t="shared" ref="N68:N71" si="18">M68-M67+12*(C68+D68+E68+F68+G68+H68)</f>
+        <v>133952.64294126967</v>
+      </c>
+      <c r="O68" s="13">
+        <f t="shared" ref="O68:O71" si="19">N68/M67</f>
+        <v>5.8110940429787636E-2</v>
+      </c>
+      <c r="P68" s="8">
+        <f t="shared" si="16"/>
+        <v>64799.067753589821</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>2079</v>
       </c>
@@ -6831,42 +7036,45 @@
         <v>0</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="16"/>
-        <v>-4260.2437692415224</v>
+        <f t="shared" si="17"/>
+        <v>-4107.451498894925</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="12"/>
-        <v>-3289.6516221373463</v>
+        <v>-3456.4721583944192</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="17"/>
-        <v>14491.85736624381</v>
-      </c>
-      <c r="J69" s="7">
+        <f t="shared" si="14"/>
+        <v>13125.84363947247</v>
+      </c>
+      <c r="H69" s="5">
         <v>0</v>
       </c>
       <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
         <f t="shared" si="13"/>
         <v>2445500.9305536435</v>
       </c>
-      <c r="L69" s="7">
-        <f t="shared" si="14"/>
+      <c r="M69" s="7">
+        <f t="shared" si="15"/>
         <v>2445500.9305536435</v>
       </c>
-      <c r="M69" s="8">
+      <c r="N69" s="8">
         <f t="shared" si="18"/>
-        <v>154531.72614168935</v>
-      </c>
-      <c r="N69" s="13">
+        <v>137971.22222950755</v>
+      </c>
+      <c r="O69" s="13">
         <f t="shared" si="19"/>
-        <v>6.5085920000000019E-2</v>
-      </c>
-      <c r="O69" s="8">
-        <f t="shared" si="15"/>
-        <v>83303.543698379304</v>
+        <v>5.8110940429787539E-2</v>
+      </c>
+      <c r="P69" s="8">
+        <f t="shared" si="16"/>
+        <v>66743.039786197507</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2080</v>
       </c>
@@ -6881,42 +7089,45 @@
         <v>0</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="16"/>
-        <v>-4388.0510823187678</v>
+        <f t="shared" si="17"/>
+        <v>-4230.6750438617728</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="12"/>
-        <v>-3388.3411708014669</v>
+        <v>-3560.1663231462521</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="17"/>
-        <v>14926.613087231124</v>
-      </c>
-      <c r="J70" s="7">
+        <f t="shared" si="14"/>
+        <v>13519.618948656645</v>
+      </c>
+      <c r="H70" s="5">
         <v>0</v>
       </c>
       <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
         <f t="shared" si="13"/>
         <v>2518865.9584702528</v>
       </c>
-      <c r="L70" s="7">
-        <f t="shared" si="14"/>
+      <c r="M70" s="7">
+        <f t="shared" si="15"/>
         <v>2518865.9584702528</v>
       </c>
-      <c r="M70" s="8">
+      <c r="N70" s="8">
         <f t="shared" si="18"/>
-        <v>159167.67792593996</v>
-      </c>
-      <c r="N70" s="13">
+        <v>142110.35889639275</v>
+      </c>
+      <c r="O70" s="13">
         <f t="shared" si="19"/>
-        <v>6.5085919999999992E-2</v>
-      </c>
-      <c r="O70" s="8">
-        <f t="shared" si="15"/>
-        <v>85802.650009330668</v>
+        <v>5.8110940429787532E-2</v>
+      </c>
+      <c r="P70" s="8">
+        <f t="shared" si="16"/>
+        <v>68745.330979783452</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>2081</v>
       </c>
@@ -6931,39 +7142,42 @@
         <v>0</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="16"/>
-        <v>-4519.6926147883314</v>
+        <f t="shared" si="17"/>
+        <v>-4357.5952951776262</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="12"/>
-        <v>-3489.9914059255111</v>
+        <v>-3666.9713128406397</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="17"/>
-        <v>15374.411479848059</v>
-      </c>
-      <c r="J71" s="7">
+        <f t="shared" si="14"/>
+        <v>13925.207517116345</v>
+      </c>
+      <c r="H71" s="5">
         <v>0</v>
       </c>
       <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
         <f t="shared" si="13"/>
         <v>2594431.9372243606</v>
       </c>
-      <c r="L71" s="7">
-        <f t="shared" si="14"/>
+      <c r="M71" s="7">
+        <f t="shared" si="15"/>
         <v>2594431.9372243606</v>
       </c>
-      <c r="M71" s="8">
+      <c r="N71" s="8">
         <f t="shared" si="18"/>
-        <v>163942.70826371844</v>
-      </c>
-      <c r="N71" s="13">
+        <v>146373.66966328479</v>
+      </c>
+      <c r="O71" s="13">
         <f t="shared" si="19"/>
-        <v>6.5085920000000089E-2</v>
-      </c>
-      <c r="O71" s="8">
-        <f t="shared" si="15"/>
-        <v>88376.729509610595</v>
+        <v>5.8110940429787629E-2</v>
+      </c>
+      <c r="P71" s="8">
+        <f t="shared" si="16"/>
+        <v>70807.690909176948</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-53626.34</c:v>
+                  <c:v>-68140.579999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-26724.559999999998</c:v>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>-20137.46</v>
+        <v>-34651.699999999997</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:I32" si="0">0.035/12</f>
@@ -3232,7 +3232,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="8">
         <f>12*(C2+D2+E2+F2+G2)+H2</f>
-        <v>-53626.34</v>
+        <v>-68140.579999999987</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">

--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -59,9 +59,6 @@
     <t>PMI Payment</t>
   </si>
   <si>
-    <t>Δ Equity</t>
-  </si>
-  <si>
     <t>Rent</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Escrow Payment</t>
+  </si>
+  <si>
+    <t>Δ Equity + Expenses</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -161,6 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3109,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3126,7 +3127,7 @@
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="14.1640625" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="12.1640625" customWidth="1"/>
@@ -3146,16 +3147,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -3172,14 +3173,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
+      <c r="N1" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="14"/>
     </row>

--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,19 +736,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>-2.5843668846901857</c:v>
+                  <c:v>-1.1385657125128108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16736907397995762</c:v>
+                  <c:v>0.24227133967349268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.8827021220126673E-2</c:v>
+                  <c:v>0.17246077401921209</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1394974536227695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.15249320839109795</c:v>
+                  <c:v>8.2995144086756859E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.3780624765330042E-2</c:v>
@@ -3110,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="M24" zoomScale="101" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3285,12 +3285,12 @@
         <v>25471.510261746647</v>
       </c>
       <c r="N3" s="8">
-        <f>M3-M2+12*(C3+D3+E3+F3+G3+H3)</f>
-        <v>-23370.429738253348</v>
+        <f>M3-M2+12*(C3+D3+E3+F3+G3)+H3</f>
+        <v>-10296.049738253349</v>
       </c>
       <c r="O3" s="13">
         <f>N3/M2</f>
-        <v>-2.5843668846901857</v>
+        <v>-1.1385657125128108</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" ref="P3:P66" si="5">12*(C3+D3+E3+F3+G3)+H3</f>
@@ -3346,12 +3346,12 @@
         <v>42427.967176367121</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" ref="N4:N67" si="6">M4-M3+12*(C4+D4+E4+F4+G4+H4)</f>
-        <v>-4263.1430853795246</v>
+        <f t="shared" ref="N4:N67" si="6">M4-M3+12*(C4+D4+E4+F4+G4)+H4</f>
+        <v>6171.0169146204762</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" ref="O4:O67" si="7">N4/M3</f>
-        <v>-0.16736907397995762</v>
+        <v>0.24227133967349268</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="5"/>
@@ -3408,11 +3408,11 @@
       </c>
       <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>-3768.7499407020005</v>
+        <v>7317.1600592979976</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" si="7"/>
-        <v>-8.8827021220126673E-2</v>
+        <v>0.17246077401921209</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="5"/>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="N7" s="8">
         <f t="shared" si="6"/>
-        <v>-11893.497945157349</v>
+        <v>6473.0920548426511</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="7"/>
-        <v>-0.15249320839109795</v>
+        <v>8.2995144086756859E-2</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="5"/>
@@ -7010,7 +7010,7 @@
         <v>2374272.7481103335</v>
       </c>
       <c r="N68" s="8">
-        <f t="shared" ref="N68:N71" si="18">M68-M67+12*(C68+D68+E68+F68+G68+H68)</f>
+        <f t="shared" ref="N68:N71" si="18">M68-M67+12*(C68+D68+E68+F68+G68)+H68</f>
         <v>133952.64294126967</v>
       </c>
       <c r="O68" s="13">

--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,10 +760,10 @@
                   <c:v>8.0966421133316896E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6805784030468671E-2</c:v>
+                  <c:v>9.9080790145712527E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3516363088133668E-2</c:v>
+                  <c:v>9.3134264347977738E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.831792251571513E-2</c:v>
@@ -1366,10 +1366,10 @@
                   <c:v>-9512.1225486000058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9162.0718250580067</c:v>
+                  <c:v>-5681.5918250580071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8801.5195798097429</c:v>
+                  <c:v>-5321.0395798097434</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-4949.6707672040375</c:v>
@@ -3110,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M24" zoomScale="101" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3741,7 @@
         <v>-1475</v>
       </c>
       <c r="D11" s="5">
-        <v>-290.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="9"/>
@@ -3780,15 +3780,15 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="6"/>
-        <v>12000.939250895422</v>
+        <v>15481.419250895422</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="7"/>
-        <v>7.6805784030468671E-2</v>
+        <v>9.9080790145712527E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="5"/>
-        <v>-9162.0718250580067</v>
+        <v>-5681.5918250580071</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>-1475</v>
       </c>
       <c r="D12" s="5">
-        <v>-290.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="9"/>
@@ -3843,15 +3843,15 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="6"/>
-        <v>13042.793314733046</v>
+        <v>16523.273314733044</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="7"/>
-        <v>7.3516363088133668E-2</v>
+        <v>9.3134264347977738E-2</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="5"/>
-        <v>-8801.5195798097429</v>
+        <v>-5321.0395798097434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">

--- a/excel/2/1420 Terry - 3 - Add Expenses.xlsx
+++ b/excel/2/1420 Terry - 3 - Add Expenses.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -736,124 +736,124 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="1">
-                  <c:v>-1.1385657125128108</c:v>
+                  <c:v>-0.75368458899185542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24227133967349268</c:v>
+                  <c:v>0.37891341406305168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17246077401921209</c:v>
+                  <c:v>0.25449345745021718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1394974536227695</c:v>
+                  <c:v>0.19757373464619754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2995144086756859E-2</c:v>
+                  <c:v>0.12762033041868479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3780624765330042E-2</c:v>
+                  <c:v>0.1308764768451402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6396522343318419E-2</c:v>
+                  <c:v>0.11825992501782338</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0966421133316896E-2</c:v>
+                  <c:v>0.1089832785160367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9080790145712527E-2</c:v>
+                  <c:v>0.12415150577122339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3134264347977738E-2</c:v>
+                  <c:v>0.11587678867069232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.831792251571513E-2</c:v>
+                  <c:v>0.10917469914585058</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.43385179661858E-2</c:v>
+                  <c:v>0.10363718987644618</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0996161945244449E-2</c:v>
+                  <c:v>9.8986119369243036E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8149910407800227E-2</c:v>
+                  <c:v>9.5025366601148936E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5697527936195136E-2</c:v>
+                  <c:v>9.1612672886868765E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.356305264666492E-2</c:v>
+                  <c:v>8.8642338676826818E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.168886541007867E-2</c:v>
+                  <c:v>8.603418802487961E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0030468251528546E-2</c:v>
+                  <c:v>8.372630282816898E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8552950381673361E-2</c:v>
+                  <c:v>8.1670105375260607E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7228538032682417E-2</c:v>
+                  <c:v>7.9826948988292762E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.603485917535773E-2</c:v>
+                  <c:v>7.8165703409023651E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4953691058824661E-2</c:v>
+                  <c:v>7.6661012023533565E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.3970040789015442E-2</c:v>
+                  <c:v>7.5292012504227984E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.3071460013342309E-2</c:v>
+                  <c:v>7.4041383206265118E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2247526999008936E-2</c:v>
+                  <c:v>7.2894622489126093E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.1489450269234483E-2</c:v>
+                  <c:v>7.1839497183764367E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.0789761765384996E-2</c:v>
+                  <c:v>7.0865615633398327E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0142076799713264E-2</c:v>
+                  <c:v>6.9964093672193556E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9540904430868603E-2</c:v>
+                  <c:v>6.9127290766296659E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.8981496323446889E-2</c:v>
+                  <c:v>6.834859970469527E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.8110940429787601E-2</c:v>
+                  <c:v>6.7273492727653081E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.8110940429787608E-2</c:v>
+                  <c:v>6.7273492727653095E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.8110940429787615E-2</c:v>
+                  <c:v>6.7273492727653081E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8110940429787629E-2</c:v>
+                  <c:v>6.7273492727653109E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.811094042978758E-2</c:v>
+                  <c:v>6.7273492727653053E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8110940429787566E-2</c:v>
+                  <c:v>6.7273492727653053E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8110940429787553E-2</c:v>
+                  <c:v>6.7273492727653039E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.8110940429787643E-2</c:v>
+                  <c:v>6.7273492727653122E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.8110940429787587E-2</c:v>
+                  <c:v>6.7273492727653067E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.811094042978765E-2</c:v>
+                  <c:v>6.7273492727653136E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,127 +1339,127 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-68140.579999999987</c:v>
+                  <c:v>-64660.099999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-26724.559999999998</c:v>
+                  <c:v>-23244.079999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10785.439999999997</c:v>
+                  <c:v>-7304.9599999999982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10184.33</c:v>
+                  <c:v>-6703.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9704.159999999998</c:v>
+                  <c:v>-6223.6799999999985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12171.970000000001</c:v>
+                  <c:v>-8691.4900000000016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10181.934000000003</c:v>
+                  <c:v>-6597.0396000000037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9851.9776200000033</c:v>
+                  <c:v>-6159.5363880000059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9512.1225486000058</c:v>
+                  <c:v>-5708.9080796400067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5681.5918250580071</c:v>
+                  <c:v>-1764.2809220292038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5321.0395798097434</c:v>
+                  <c:v>-1286.2093496900779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4949.6707672040375</c:v>
+                  <c:v>-793.79563018077897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4567.1608902201588</c:v>
+                  <c:v>-286.60949908620387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4173.1757169267621</c:v>
+                  <c:v>235.79221594120827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3767.3709884345644</c:v>
+                  <c:v>773.86598241944921</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3349.3921180875968</c:v>
+                  <c:v>1328.0819618920304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2918.8738816302302</c:v>
+                  <c:v>1898.9244207487955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2475.4400980791288</c:v>
+                  <c:v>2486.8921533712619</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2018.7033010215091</c:v>
+                  <c:v>3092.4989179723943</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1548.2644000521559</c:v>
+                  <c:v>3716.2738855115676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1063.7123320537212</c:v>
+                  <c:v>4358.7621020769129</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-564.62370201533304</c:v>
+                  <c:v>5020.5249651392169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-50.562413075798759</c:v>
+                  <c:v>5702.1407140933916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>478.92071453193421</c:v>
+                  <c:v>6404.204935516198</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1024.2883359678908</c:v>
+                  <c:v>7127.331083581681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1586.0169860469268</c:v>
+                  <c:v>7872.1510160891321</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2164.5974956283335</c:v>
+                  <c:v>8639.3155465718046</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2760.5354204971845</c:v>
+                  <c:v>9429.4950129689569</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3374.3514831121065</c:v>
+                  <c:v>10243.379863358032</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4006.5820276054656</c:v>
+                  <c:v>11081.681259258776</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4657.7794884336363</c:v>
+                  <c:v>11945.131697036544</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23028.512873086642</c:v>
+                  <c:v>30534.485647947637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23719.368259279239</c:v>
+                  <c:v>31450.520217386067</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24430.949307057621</c:v>
+                  <c:v>32394.035823907649</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25163.877786269346</c:v>
+                  <c:v>33365.856898624879</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25918.794119857423</c:v>
+                  <c:v>34366.832605583622</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26696.357943453149</c:v>
+                  <c:v>35397.837583751141</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27497.248681756741</c:v>
+                  <c:v>36459.772711263671</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28322.166142209455</c:v>
+                  <c:v>37553.565892601582</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29171.831126475736</c:v>
+                  <c:v>38680.172869379632</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30046.98606027001</c:v>
+                  <c:v>39840.578055461025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3198,8 +3198,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E2" s="5">
-        <f>-2046.7-C2</f>
-        <v>-571.70000000000005</v>
+        <f>-2046.7-C2-D2</f>
+        <v>-281.66000000000003</v>
       </c>
       <c r="F2" s="5">
         <v>-454</v>
@@ -3233,7 +3233,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="8">
         <f>12*(C2+D2+E2+F2+G2)+H2</f>
-        <v>-68140.579999999987</v>
+        <v>-64660.099999999991</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3251,8 +3251,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E3" s="5">
-        <f>-2062.95-C3</f>
-        <v>-587.94999999999982</v>
+        <f>-2062.95-C3-D3</f>
+        <v>-297.9099999999998</v>
       </c>
       <c r="F3" s="5">
         <v>-454</v>
@@ -3286,15 +3286,15 @@
       </c>
       <c r="N3" s="8">
         <f>M3-M2+12*(C3+D3+E3+F3+G3)+H3</f>
-        <v>-10296.049738253349</v>
+        <v>-6815.569738253349</v>
       </c>
       <c r="O3" s="13">
         <f>N3/M2</f>
-        <v>-1.1385657125128108</v>
+        <v>-0.75368458899185542</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" ref="P3:P66" si="5">12*(C3+D3+E3+F3+G3)+H3</f>
-        <v>-26724.559999999998</v>
+        <v>-23244.079999999994</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3312,8 +3312,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E4" s="5">
-        <f>-2073.7-C4</f>
-        <v>-598.69999999999982</v>
+        <f>-2073.7-C4-D4</f>
+        <v>-308.6599999999998</v>
       </c>
       <c r="F4" s="5">
         <v>-454</v>
@@ -3347,15 +3347,15 @@
       </c>
       <c r="N4" s="8">
         <f t="shared" ref="N4:N67" si="6">M4-M3+12*(C4+D4+E4+F4+G4)+H4</f>
-        <v>6171.0169146204762</v>
+        <v>9651.4969146204767</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" ref="O4:O67" si="7">N4/M3</f>
-        <v>0.24227133967349268</v>
+        <v>0.37891341406305168</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="5"/>
-        <v>-10785.439999999997</v>
+        <v>-7304.9599999999982</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3373,8 +3373,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E5" s="5">
-        <f>-2048.67-C5</f>
-        <v>-573.67000000000007</v>
+        <f>-2048.67-C5-D5</f>
+        <v>-283.63000000000005</v>
       </c>
       <c r="F5" s="5">
         <v>-475</v>
@@ -3408,15 +3408,15 @@
       </c>
       <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>7317.1600592979976</v>
+        <v>10797.640059297997</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" si="7"/>
-        <v>0.17246077401921209</v>
+        <v>0.25449345745021718</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="5"/>
-        <v>-10184.33</v>
+        <v>-6703.85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3434,8 +3434,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E6" s="5">
-        <f>-2078.64-C6</f>
-        <v>-603.63999999999987</v>
+        <f>-2078.64-C6-D6</f>
+        <v>-313.59999999999985</v>
       </c>
       <c r="F6" s="5">
         <v>-540</v>
@@ -3468,15 +3468,15 @@
       </c>
       <c r="N6" s="8">
         <f t="shared" si="6"/>
-        <v>8360.0066813699432</v>
+        <v>11840.486681369943</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" si="7"/>
-        <v>0.1394974536227695</v>
+        <v>0.19757373464619754</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="5"/>
-        <v>-9704.159999999998</v>
+        <v>-6223.6799999999985</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3494,8 +3494,8 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E7" s="5">
-        <f>-2132.15-C7</f>
-        <v>-657.15000000000009</v>
+        <f>-2132.15-C7-D7</f>
+        <v>-367.11000000000007</v>
       </c>
       <c r="F7" s="12">
         <v>-553</v>
@@ -3528,15 +3528,15 @@
       </c>
       <c r="N7" s="8">
         <f t="shared" si="6"/>
-        <v>6473.0920548426511</v>
+        <v>9953.5720548426507</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="7"/>
-        <v>8.2995144086756859E-2</v>
+        <v>0.12762033041868479</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="5"/>
-        <v>-12171.970000000001</v>
+        <v>-8691.4900000000016</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E67" si="9">E7*(1+B8)</f>
-        <v>-676.86450000000013</v>
+        <v>-378.12330000000009</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F34" si="10">F7*(1+B8)</f>
@@ -3591,15 +3591,15 @@
       </c>
       <c r="N8" s="8">
         <f t="shared" si="6"/>
-        <v>9062.8363469432279</v>
+        <v>12647.730746943227</v>
       </c>
       <c r="O8" s="13">
         <f t="shared" si="7"/>
-        <v>9.3780624765330042E-2</v>
+        <v>0.1308764768451402</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="5"/>
-        <v>-10181.934000000003</v>
+        <v>-6597.0396000000037</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="9"/>
-        <v>-697.17043500000011</v>
+        <v>-389.4669990000001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="10"/>
@@ -3654,15 +3654,15 @@
       </c>
       <c r="N9" s="8">
         <f t="shared" si="6"/>
-        <v>10011.927623069978</v>
+        <v>13704.368855069975</v>
       </c>
       <c r="O9" s="13">
         <f t="shared" si="7"/>
-        <v>8.6396522343318419E-2</v>
+        <v>0.11825992501782338</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="5"/>
-        <v>-9851.9776200000033</v>
+        <v>-6159.5363880000059</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="9"/>
-        <v>-718.08554805000017</v>
+        <v>-401.15100897000013</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="10"/>
@@ -3717,15 +3717,15 @@
       </c>
       <c r="N10" s="8">
         <f t="shared" si="6"/>
-        <v>10990.978043956695</v>
+        <v>14794.192512916694</v>
       </c>
       <c r="O10" s="13">
         <f t="shared" si="7"/>
-        <v>8.0966421133316896E-2</v>
+        <v>0.1089832785160367</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="5"/>
-        <v>-9512.1225486000058</v>
+        <v>-5708.9080796400067</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="9"/>
-        <v>-739.62811449150024</v>
+        <v>-413.18553923910014</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="10"/>
@@ -3780,15 +3780,15 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="6"/>
-        <v>15481.419250895422</v>
+        <v>19398.730153924225</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="7"/>
-        <v>9.9080790145712527E-2</v>
+        <v>0.12415150577122339</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="5"/>
-        <v>-5681.5918250580071</v>
+        <v>-1764.2809220292038</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="9"/>
-        <v>-761.81695792624532</v>
+        <v>-425.58110541627315</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="10"/>
@@ -3843,15 +3843,15 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="6"/>
-        <v>16523.273314733044</v>
+        <v>20558.103544852711</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="7"/>
-        <v>9.3134264347977738E-2</v>
+        <v>0.11587678867069232</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="5"/>
-        <v>-5321.0395798097434</v>
+        <v>-1286.2093496900779</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="9"/>
-        <v>-784.67146666403266</v>
+        <v>-438.34853857876135</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="10"/>
@@ -3906,15 +3906,15 @@
       </c>
       <c r="N13" s="8">
         <f t="shared" si="6"/>
-        <v>17598.033715635727</v>
+        <v>21753.908852658984</v>
       </c>
       <c r="O13" s="13">
         <f t="shared" si="7"/>
-        <v>8.831792251571513E-2</v>
+        <v>0.10917469914585058</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="5"/>
-        <v>-4949.6707672040375</v>
+        <v>-793.79563018077897</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="9"/>
-        <v>-808.21161066395371</v>
+        <v>-451.49899473612419</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="10"/>
@@ -3969,15 +3969,15 @@
       </c>
       <c r="N14" s="8">
         <f t="shared" si="6"/>
-        <v>18706.746354623214</v>
+        <v>22987.297745757169</v>
       </c>
       <c r="O14" s="13">
         <f t="shared" si="7"/>
-        <v>8.43385179661858E-2</v>
+        <v>0.10363718987644618</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="5"/>
-        <v>-4567.1608902201588</v>
+        <v>-286.60949908620387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="9"/>
-        <v>-832.45795898387235</v>
+        <v>-465.04396457820792</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="10"/>
@@ -4032,15 +4032,15 @@
       </c>
       <c r="N15" s="8">
         <f t="shared" si="6"/>
-        <v>19850.49059791437</v>
+        <v>24259.45853078234</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" si="7"/>
-        <v>8.0996161945244449E-2</v>
+        <v>9.8986119369243036E-2</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="5"/>
-        <v>-4173.1757169267621</v>
+        <v>235.79221594120827</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="9"/>
-        <v>-857.43169775338856</v>
+        <v>-478.99528351555415</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="10"/>
@@ -4095,15 +4095,15 @@
       </c>
       <c r="N16" s="8">
         <f t="shared" si="6"/>
-        <v>21030.380355152149</v>
+        <v>25571.617326006162</v>
       </c>
       <c r="O16" s="13">
         <f t="shared" si="7"/>
-        <v>7.8149910407800227E-2</v>
+        <v>9.5025366601148936E-2</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="5"/>
-        <v>-3767.3709884345644</v>
+        <v>773.86598241944921</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="9"/>
-        <v>-883.1546486859902</v>
+        <v>-493.3651420210208</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="10"/>
@@ -4158,15 +4158,15 @@
       </c>
       <c r="N17" s="8">
         <f t="shared" si="6"/>
-        <v>22247.565192618604</v>
+        <v>26925.039272598231</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="7"/>
-        <v>7.5697527936195136E-2</v>
+        <v>9.1612672886868765E-2</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="5"/>
-        <v>-3349.3921180875968</v>
+        <v>1328.0819618920304</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="9"/>
-        <v>-909.64928814656992</v>
+        <v>-508.16609628165145</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="10"/>
@@ -4221,15 +4221,15 @@
       </c>
       <c r="N18" s="8">
         <f t="shared" si="6"/>
-        <v>23503.231482579395</v>
+        <v>28321.029784958417</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" si="7"/>
-        <v>7.356305264666492E-2</v>
+        <v>8.8642338676826818E-2</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="5"/>
-        <v>-2918.8738816302302</v>
+        <v>1898.9244207487955</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="9"/>
-        <v>-936.93876679096707</v>
+        <v>-523.41107917010106</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="10"/>
@@ -4284,15 +4284,15 @@
       </c>
       <c r="N19" s="8">
         <f t="shared" si="6"/>
-        <v>24798.603589944858</v>
+        <v>29760.93584139525</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="7"/>
-        <v>7.168886541007867E-2</v>
+        <v>8.603418802487961E-2</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="5"/>
-        <v>-2475.4400980791288</v>
+        <v>2486.8921533712619</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="9"/>
-        <v>-965.0469297946961</v>
+        <v>-539.11341154520414</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="10"/>
@@ -4347,15 +4347,15 @@
       </c>
       <c r="N20" s="8">
         <f t="shared" si="6"/>
-        <v>26134.945097460208</v>
+        <v>31246.147316454109</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" si="7"/>
-        <v>7.0030468251528546E-2</v>
+        <v>8.372630282816898E-2</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="5"/>
-        <v>-2018.7033010215091</v>
+        <v>3092.4989179723943</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="9"/>
-        <v>-993.99833768853705</v>
+        <v>-555.28681389156031</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="10"/>
@@ -4410,15 +4410,15 @@
       </c>
       <c r="N21" s="8">
         <f t="shared" si="6"/>
-        <v>27513.560070694235</v>
+        <v>32778.098356257957</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="7"/>
-        <v>6.8552950381673361E-2</v>
+        <v>8.1670105375260607E-2</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="5"/>
-        <v>-1548.2644000521559</v>
+        <v>3716.2738855115676</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="9"/>
-        <v>-1023.8182878191932</v>
+        <v>-571.94541830830713</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="10"/>
@@ -4473,15 +4473,15 @@
       </c>
       <c r="N22" s="8">
         <f t="shared" si="6"/>
-        <v>28935.79436411857</v>
+        <v>34358.268798249206</v>
       </c>
       <c r="O22" s="13">
         <f t="shared" si="7"/>
-        <v>6.7228538032682417E-2</v>
+        <v>7.9826948988292762E-2</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="5"/>
-        <v>-1063.7123320537212</v>
+        <v>4358.7621020769129</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="9"/>
-        <v>-1054.5328364537691</v>
+        <v>-589.10378085755633</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="10"/>
@@ -4536,15 +4536,15 @@
       </c>
       <c r="N23" s="8">
         <f t="shared" si="6"/>
-        <v>30403.036969631605</v>
+        <v>35988.185636786155</v>
       </c>
       <c r="O23" s="13">
         <f t="shared" si="7"/>
-        <v>6.603485917535773E-2</v>
+        <v>7.8165703409023651E-2</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="5"/>
-        <v>-564.62370201533304</v>
+        <v>5020.5249651392169</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="9"/>
-        <v>-1086.1688215473821</v>
+        <v>-606.77689428328301</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="10"/>
@@ -4599,15 +4599,15 @@
       </c>
       <c r="N24" s="8">
         <f t="shared" si="6"/>
-        <v>31916.721408907986</v>
+        <v>37669.424536077175</v>
       </c>
       <c r="O24" s="13">
         <f t="shared" si="7"/>
-        <v>6.4953691058824661E-2</v>
+        <v>7.6661012023533565E-2</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="5"/>
-        <v>-50.562413075798759</v>
+        <v>5702.1407140933916</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="9"/>
-        <v>-1118.7538861938035</v>
+        <v>-624.98020111178153</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="10"/>
@@ -4662,15 +4662,15 @@
       </c>
       <c r="N25" s="8">
         <f t="shared" si="6"/>
-        <v>33478.327171015873</v>
+        <v>39403.611392000137</v>
       </c>
       <c r="O25" s="13">
         <f t="shared" si="7"/>
-        <v>6.3970040789015442E-2</v>
+        <v>7.5292012504227984E-2</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="5"/>
-        <v>478.92071453193421</v>
+        <v>6404.204935516198</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="9"/>
-        <v>-1152.3165027796176</v>
+        <v>-643.72960714513499</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="10"/>
@@ -4725,15 +4725,15 @@
       </c>
       <c r="N26" s="8">
         <f t="shared" si="6"/>
-        <v>35089.381196777766</v>
+        <v>41192.423944391558</v>
       </c>
       <c r="O26" s="13">
         <f t="shared" si="7"/>
-        <v>6.3071460013342309E-2</v>
+        <v>7.4041383206265118E-2</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="5"/>
-        <v>1024.2883359678908</v>
+        <v>7127.331083581681</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="9"/>
-        <v>-1186.8859978630062</v>
+        <v>-663.04149535948909</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="10"/>
@@ -4788,15 +4788,15 @@
       </c>
       <c r="N27" s="8">
         <f t="shared" si="6"/>
-        <v>36751.459411409458</v>
+        <v>43037.593441451667</v>
       </c>
       <c r="O27" s="13">
         <f t="shared" si="7"/>
-        <v>6.2247526999008936E-2</v>
+        <v>7.2894622489126093E-2</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="5"/>
-        <v>1586.0169860469268</v>
+        <v>7872.1510160891321</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="9"/>
-        <v>-1222.4925777988965</v>
+        <v>-682.93274022027379</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="10"/>
@@ -4851,15 +4851,15 @@
       </c>
       <c r="N28" s="8">
         <f t="shared" si="6"/>
-        <v>38466.188307020508</v>
+        <v>44940.906357963977</v>
       </c>
       <c r="O28" s="13">
         <f t="shared" si="7"/>
-        <v>6.1489450269234483E-2</v>
+        <v>7.1839497183764367E-2</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="5"/>
-        <v>2164.5974956283335</v>
+        <v>8639.3155465718046</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="9"/>
-        <v>-1259.1673551328633</v>
+        <v>-703.42072242688198</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="10"/>
@@ -4914,15 +4914,15 @@
       </c>
       <c r="N29" s="8">
         <f t="shared" si="6"/>
-        <v>40235.246576603269</v>
+        <v>46904.206169075042</v>
       </c>
       <c r="O29" s="13">
         <f t="shared" si="7"/>
-        <v>6.0789761765384996E-2</v>
+        <v>7.0865615633398327E-2</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="5"/>
-        <v>2760.5354204971845</v>
+        <v>9429.4950129689569</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="9"/>
-        <v>-1296.9423757868492</v>
+        <v>-724.52334409968842</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="10"/>
@@ -4977,15 +4977,15 @@
       </c>
       <c r="N30" s="8">
         <f t="shared" si="6"/>
-        <v>42060.36680120651</v>
+        <v>48929.395181452433</v>
       </c>
       <c r="O30" s="13">
         <f t="shared" si="7"/>
-        <v>6.0142076799713264E-2</v>
+        <v>6.9964093672193556E-2</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="5"/>
-        <v>3374.3514831121065</v>
+        <v>10243.379863358032</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="9"/>
-        <v>-1335.8506470604548</v>
+        <v>-746.25904442267904</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="10"/>
@@ -5040,15 +5040,15 @@
       </c>
       <c r="N31" s="8">
         <f t="shared" si="6"/>
-        <v>43943.337192029772</v>
+        <v>51018.436423683081</v>
       </c>
       <c r="O31" s="13">
         <f t="shared" si="7"/>
-        <v>5.9540904430868603E-2</v>
+        <v>6.9127290766296659E-2</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="5"/>
-        <v>4006.5820276054656</v>
+        <v>11081.681259258776</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="9"/>
-        <v>-1375.9261664722685</v>
+        <v>-768.6468157553594</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="10"/>
@@ -5103,15 +5103,15 @@
       </c>
       <c r="N32" s="8">
         <f t="shared" si="6"/>
-        <v>45886.003389245379</v>
+        <v>53173.355597848291</v>
       </c>
       <c r="O32" s="13">
         <f t="shared" si="7"/>
-        <v>5.8981496323446889E-2</v>
+        <v>6.834859970469527E-2</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="5"/>
-        <v>4657.7794884336363</v>
+        <v>11945.131697036544</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="9"/>
-        <v>-1417.2039514664366</v>
+        <v>-791.70622022802024</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="10"/>
@@ -5156,15 +5156,15 @@
       </c>
       <c r="N33" s="8">
         <f t="shared" si="6"/>
-        <v>47604.545393881999</v>
+        <v>55110.518168742994</v>
       </c>
       <c r="O33" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787601E-2</v>
+        <v>6.7273492727653081E-2</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="5"/>
-        <v>23028.512873086642</v>
+        <v>30534.485647947637</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="9"/>
-        <v>-1459.7200700104297</v>
+        <v>-815.45740683486088</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="10"/>
@@ -5209,15 +5209,15 @@
       </c>
       <c r="N34" s="8">
         <f t="shared" si="6"/>
-        <v>49032.681755698468</v>
+        <v>56763.833713805296</v>
       </c>
       <c r="O34" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787608E-2</v>
+        <v>6.7273492727653095E-2</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="5"/>
-        <v>23719.368259279239</v>
+        <v>31450.520217386067</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="9"/>
-        <v>-1503.5116721107427</v>
+        <v>-839.92112903990676</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
@@ -5262,15 +5262,15 @@
       </c>
       <c r="N35" s="8">
         <f t="shared" si="6"/>
-        <v>50503.662208369431</v>
+        <v>58466.748725219455</v>
       </c>
       <c r="O35" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787615E-2</v>
+        <v>6.7273492727653081E-2</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="5"/>
-        <v>24430.949307057621</v>
+        <v>32394.035823907649</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="9"/>
-        <v>-1548.617022274065</v>
+        <v>-865.118762911104</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="12"/>
@@ -5315,15 +5315,15 @@
       </c>
       <c r="N36" s="8">
         <f t="shared" si="6"/>
-        <v>52018.772074620523</v>
+        <v>60220.751186976056</v>
       </c>
       <c r="O36" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787629E-2</v>
+        <v>6.7273492727653109E-2</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="5"/>
-        <v>25163.877786269346</v>
+        <v>33365.856898624879</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" si="9"/>
-        <v>-1595.0755329422871</v>
+        <v>-891.07232579843719</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="12"/>
@@ -5368,15 +5368,15 @@
       </c>
       <c r="N37" s="8">
         <f t="shared" si="6"/>
-        <v>53579.3352368591</v>
+        <v>62027.373722585296</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="7"/>
-        <v>5.811094042978758E-2</v>
+        <v>6.7273492727653053E-2</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="5"/>
-        <v>25918.794119857423</v>
+        <v>34366.832605583622</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" si="9"/>
-        <v>-1642.9277989305558</v>
+        <v>-917.80449557239035</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="12"/>
@@ -5421,15 +5421,15 @@
       </c>
       <c r="N38" s="8">
         <f t="shared" si="6"/>
-        <v>55186.715293964859</v>
+        <v>63888.19493426285</v>
       </c>
       <c r="O38" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787566E-2</v>
+        <v>6.7273492727653053E-2</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="5"/>
-        <v>26696.357943453149</v>
+        <v>35397.837583751141</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="9"/>
-        <v>-1692.2156328984724</v>
+        <v>-945.33863043956205</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="12"/>
@@ -5474,15 +5474,15 @@
       </c>
       <c r="N39" s="8">
         <f t="shared" si="6"/>
-        <v>56842.316752783794</v>
+        <v>65804.840782290732</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787553E-2</v>
+        <v>6.7273492727653039E-2</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="5"/>
-        <v>27497.248681756741</v>
+        <v>36459.772711263671</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="9"/>
-        <v>-1742.9821018854266</v>
+        <v>-973.69878935274892</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="12"/>
@@ -5527,15 +5527,15 @@
       </c>
       <c r="N40" s="8">
         <f t="shared" si="6"/>
-        <v>58547.586255367401</v>
+        <v>67778.986005759536</v>
       </c>
       <c r="O40" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787643E-2</v>
+        <v>6.7273492727653122E-2</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="5"/>
-        <v>28322.166142209455</v>
+        <v>37553.565892601582</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="9"/>
-        <v>-1795.2715649419895</v>
+        <v>-1002.9097530333314</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="12"/>
@@ -5580,15 +5580,15 @@
       </c>
       <c r="N41" s="8">
         <f t="shared" si="6"/>
-        <v>60304.01384302837</v>
+        <v>69812.355585932266</v>
       </c>
       <c r="O41" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787587E-2</v>
+        <v>6.7273492727653067E-2</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>29171.831126475736</v>
+        <v>38680.172869379632</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="9"/>
-        <v>-1849.1297118902492</v>
+        <v>-1032.9970456243313</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="12"/>
@@ -5633,15 +5633,15 @@
       </c>
       <c r="N42" s="8">
         <f t="shared" si="6"/>
-        <v>62113.134258319289</v>
+        <v>71906.726253510307</v>
       </c>
       <c r="O42" s="13">
         <f t="shared" si="7"/>
-        <v>5.811094042978765E-2</v>
+        <v>6.7273492727653136E-2</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="5"/>
-        <v>30046.98606027001</v>
+        <v>39840.578055461025</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" si="9"/>
-        <v>-1904.6036032469567</v>
+        <v>-1063.9869569930613</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
@@ -5686,15 +5686,15 @@
       </c>
       <c r="N43" s="8">
         <f t="shared" si="6"/>
-        <v>63976.528286068795</v>
+        <v>74063.928041115534</v>
       </c>
       <c r="O43" s="13">
         <f t="shared" si="7"/>
-        <v>5.811094042978758E-2</v>
+        <v>6.7273492727653053E-2</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="5"/>
-        <v>30948.395642078111</v>
+        <v>41035.79539712485</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="9"/>
-        <v>-1961.7417113443655</v>
+        <v>-1095.9065657028532</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
@@ -5739,15 +5739,15 @@
       </c>
       <c r="N44" s="8">
         <f t="shared" si="6"/>
-        <v>65895.824134650931</v>
+        <v>76285.84588234908</v>
       </c>
       <c r="O44" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787643E-2</v>
+        <v>6.7273492727653122E-2</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="5"/>
-        <v>31876.847511340453</v>
+        <v>42266.869259038605</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" si="9"/>
-        <v>-2020.5939626846966</v>
+        <v>-1128.7837626739388</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
@@ -5792,15 +5792,15 @@
       </c>
       <c r="N45" s="8">
         <f t="shared" si="6"/>
-        <v>67872.698858690404</v>
+        <v>78574.421258819493</v>
       </c>
       <c r="O45" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787587E-2</v>
+        <v>6.7273492727653067E-2</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="5"/>
-        <v>32833.152936680664</v>
+        <v>43534.87533680976</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="9"/>
-        <v>-2081.2117815652377</v>
+        <v>-1162.647275554157</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
@@ -5845,15 +5845,15 @@
       </c>
       <c r="N46" s="8">
         <f t="shared" si="6"/>
-        <v>69908.8798244512</v>
+        <v>80931.653896584161</v>
       </c>
       <c r="O46" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787657E-2</v>
+        <v>6.7273492727653122E-2</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="5"/>
-        <v>33818.147524781081</v>
+        <v>44840.92159691405</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="9"/>
-        <v>-2143.6481350121949</v>
+        <v>-1197.5266938207817</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
@@ -5898,15 +5898,15 @@
       </c>
       <c r="N47" s="8">
         <f t="shared" si="6"/>
-        <v>72006.14621918468</v>
+        <v>83359.603513481648</v>
       </c>
       <c r="O47" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787608E-2</v>
+        <v>6.7273492727653095E-2</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="5"/>
-        <v>34832.691950524517</v>
+        <v>46186.149244821478</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="9"/>
-        <v>-2207.9575790625609</v>
+        <v>-1233.4524946354052</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="12"/>
@@ -5951,15 +5951,15 @@
       </c>
       <c r="N48" s="8">
         <f t="shared" si="6"/>
-        <v>74166.330605760115</v>
+        <v>85860.391618885988</v>
       </c>
       <c r="O48" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787518E-2</v>
+        <v>6.7273492727652998E-2</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="5"/>
-        <v>35877.672709040242</v>
+        <v>47571.733722166115</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" si="9"/>
-        <v>-2274.1963064344377</v>
+        <v>-1270.4560694744673</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
@@ -6004,15 +6004,15 @@
       </c>
       <c r="N49" s="8">
         <f t="shared" si="6"/>
-        <v>76391.320523933085</v>
+        <v>88436.203367452734</v>
       </c>
       <c r="O49" s="13">
         <f t="shared" si="7"/>
-        <v>5.811094042978765E-2</v>
+        <v>6.7273492727653136E-2</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="5"/>
-        <v>36954.002890311458</v>
+        <v>48998.885733831106</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" si="9"/>
-        <v>-2342.422195627471</v>
+        <v>-1308.5697515587015</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="12"/>
@@ -6057,15 +6057,15 @@
       </c>
       <c r="N50" s="8">
         <f t="shared" si="6"/>
-        <v>78683.060139651061</v>
+        <v>91089.289468476287</v>
       </c>
       <c r="O50" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787629E-2</v>
+        <v>6.7273492727653109E-2</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="5"/>
-        <v>38062.622977020801</v>
+        <v>50468.852305846034</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="9"/>
-        <v>-2412.6948614962953</v>
+        <v>-1347.8268441054624</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="12"/>
@@ -6110,15 +6110,15 @@
       </c>
       <c r="N51" s="8">
         <f t="shared" si="6"/>
-        <v>81043.551943840459</v>
+        <v>93821.968152530433</v>
       </c>
       <c r="O51" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787532E-2</v>
+        <v>6.7273492727652998E-2</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="5"/>
-        <v>39204.501666331424</v>
+        <v>51982.917875021412</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" si="9"/>
-        <v>-2485.0757073411842</v>
+        <v>-1388.2616494286262</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="12"/>
@@ -6163,15 +6163,15 @@
       </c>
       <c r="N52" s="8">
         <f t="shared" si="6"/>
-        <v>83474.85850215565</v>
+        <v>96636.627197106354</v>
       </c>
       <c r="O52" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787518E-2</v>
+        <v>6.7273492727652998E-2</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="5"/>
-        <v>40380.636716321358</v>
+        <v>53542.405411272062</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" si="9"/>
-        <v>-2559.6279785614197</v>
+        <v>-1429.9094989114851</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="12"/>
@@ -6216,15 +6216,15 @@
       </c>
       <c r="N53" s="8">
         <f t="shared" si="6"/>
-        <v>85979.104257220359</v>
+        <v>99535.726013019579</v>
       </c>
       <c r="O53" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787546E-2</v>
+        <v>6.7273492727653025E-2</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="5"/>
-        <v>41592.055817811008</v>
+        <v>55148.677573610228</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="9"/>
-        <v>-2636.4168179182625</v>
+        <v>-1472.8067838788297</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="12"/>
@@ -6269,15 +6269,15 @@
       </c>
       <c r="N54" s="8">
         <f t="shared" si="6"/>
-        <v>88558.477384936967</v>
+        <v>102521.79779341017</v>
       </c>
       <c r="O54" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787539E-2</v>
+        <v>6.7273492727653025E-2</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="5"/>
-        <v>42839.817492345326</v>
+        <v>56803.137900818525</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" si="9"/>
-        <v>-2715.5093224558104</v>
+        <v>-1516.9909873951947</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="12"/>
@@ -6322,15 +6322,15 @@
       </c>
       <c r="N55" s="8">
         <f t="shared" si="6"/>
-        <v>91215.231706485123</v>
+        <v>105597.45172721252</v>
       </c>
       <c r="O55" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787573E-2</v>
+        <v>6.7273492727653053E-2</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="5"/>
-        <v>44125.012017115689</v>
+        <v>58507.232037843081</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" si="9"/>
-        <v>-2796.974602129485</v>
+        <v>-1562.5007170170506</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="12"/>
@@ -6375,15 +6375,15 @@
       </c>
       <c r="N56" s="8">
         <f t="shared" si="6"/>
-        <v>93951.688657679711</v>
+        <v>108765.37527902891</v>
       </c>
       <c r="O56" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787587E-2</v>
+        <v>6.7273492727653067E-2</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="5"/>
-        <v>45448.762377629173</v>
+        <v>60262.448998978376</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" si="9"/>
-        <v>-2880.8838401933695</v>
+        <v>-1609.3757385275621</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="12"/>
@@ -6428,15 +6428,15 @@
       </c>
       <c r="N57" s="8">
         <f t="shared" si="6"/>
-        <v>96770.239317409985</v>
+        <v>112028.33653739968</v>
       </c>
       <c r="O57" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787518E-2</v>
+        <v>6.7273492727652998E-2</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="5"/>
-        <v>46812.225248958035</v>
+        <v>62070.322468947728</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" si="9"/>
-        <v>-2967.3103553991705</v>
+        <v>-1657.657010683389</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="12"/>
@@ -6481,15 +6481,15 @@
       </c>
       <c r="N58" s="8">
         <f t="shared" si="6"/>
-        <v>99673.346496932456</v>
+        <v>115389.18663352184</v>
       </c>
       <c r="O58" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787615E-2</v>
+        <v>6.7273492727653095E-2</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="5"/>
-        <v>48216.592006426785</v>
+        <v>63932.432143016165</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" si="9"/>
-        <v>-3056.3296660611459</v>
+        <v>-1707.3867210038907</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="12"/>
@@ -6534,15 +6534,15 @@
       </c>
       <c r="N59" s="8">
         <f t="shared" si="6"/>
-        <v>102663.54689184026</v>
+        <v>118850.86223252733</v>
       </c>
       <c r="O59" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787518E-2</v>
+        <v>6.7273492727652998E-2</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="5"/>
-        <v>49663.089766619581</v>
+        <v>65850.405107306651</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" si="9"/>
-        <v>-3148.0195560429802</v>
+        <v>-1758.6083226340074</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="12"/>
@@ -6587,15 +6587,15 @@
       </c>
       <c r="N60" s="8">
         <f t="shared" si="6"/>
-        <v>105743.45329859566</v>
+        <v>122416.38809950333</v>
       </c>
       <c r="O60" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787622E-2</v>
+        <v>6.7273492727653095E-2</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="5"/>
-        <v>51152.982459618172</v>
+        <v>67825.917260525835</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" si="9"/>
-        <v>-3242.4601427242696</v>
+        <v>-1811.3665723130277</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="12"/>
@@ -6640,15 +6640,15 @@
       </c>
       <c r="N61" s="8">
         <f t="shared" si="6"/>
-        <v>108915.75689755341</v>
+        <v>126088.87974248832</v>
       </c>
       <c r="O61" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787553E-2</v>
+        <v>6.7273492727653039E-2</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="5"/>
-        <v>52687.571933406711</v>
+        <v>69860.694778341625</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" si="9"/>
-        <v>-3339.7339470059978</v>
+        <v>-1865.7075694824186</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="12"/>
@@ -6693,15 +6693,15 @@
       </c>
       <c r="N62" s="8">
         <f t="shared" si="6"/>
-        <v>112183.22960447991</v>
+        <v>129871.54613476286</v>
       </c>
       <c r="O62" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787504E-2</v>
+        <v>6.7273492727652984E-2</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="5"/>
-        <v>54268.199091408926</v>
+        <v>71956.515621691869</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" si="9"/>
-        <v>-3439.9259654161779</v>
+        <v>-1921.6787965668912</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="12"/>
@@ -6746,15 +6746,15 @@
       </c>
       <c r="N63" s="8">
         <f t="shared" si="6"/>
-        <v>115548.72649261443</v>
+        <v>133767.69251880585</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" si="7"/>
-        <v>5.811094042978756E-2</v>
+        <v>6.7273492727653039E-2</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="5"/>
-        <v>55896.245064151175</v>
+        <v>74115.211090342622</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" si="9"/>
-        <v>-3543.1237443786631</v>
+        <v>-1979.329160463898</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="12"/>
@@ -6799,15 +6799,15 @@
       </c>
       <c r="N64" s="8">
         <f t="shared" si="6"/>
-        <v>119015.18828739288</v>
+        <v>137780.72329437005</v>
       </c>
       <c r="O64" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787573E-2</v>
+        <v>6.7273492727653039E-2</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="5"/>
-        <v>57573.132416075721</v>
+        <v>76338.667423052902</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="9"/>
-        <v>-3649.4174567100231</v>
+        <v>-2038.709035277815</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="12"/>
@@ -6852,15 +6852,15 @@
       </c>
       <c r="N65" s="8">
         <f t="shared" si="6"/>
-        <v>122585.64393601482</v>
+        <v>141914.14499320131</v>
       </c>
       <c r="O65" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787643E-2</v>
+        <v>6.7273492727653109E-2</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="5"/>
-        <v>59300.326388558002</v>
+        <v>78628.827445744493</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" si="9"/>
-        <v>-3758.8999804113237</v>
+        <v>-2099.8703063361495</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="12"/>
@@ -6905,15 +6905,15 @@
       </c>
       <c r="N66" s="8">
         <f t="shared" si="6"/>
-        <v>126263.21325409503</v>
+        <v>146171.5693429971</v>
       </c>
       <c r="O66" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787525E-2</v>
+        <v>6.7273492727652998E-2</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="5"/>
-        <v>61079.336180214741</v>
+        <v>80987.692269116829</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="9"/>
-        <v>-3871.6669798236635</v>
+        <v>-2162.8664155262341</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="12"/>
@@ -6958,15 +6958,15 @@
       </c>
       <c r="N67" s="8">
         <f t="shared" si="6"/>
-        <v>130051.1096517179</v>
+        <v>150556.71642328706</v>
       </c>
       <c r="O67" s="13">
         <f t="shared" si="7"/>
-        <v>5.8110940429787532E-2</v>
+        <v>6.7273492727653011E-2</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" ref="P67:P71" si="16">12*(C67+D67+E67+F67+G67)+H67</f>
-        <v>62911.716265621202</v>
+        <v>83417.323037190363</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E71" si="17">E67*(1+B68)</f>
-        <v>-3987.8169892183737</v>
+        <v>-2227.7524079920213</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
@@ -7011,15 +7011,15 @@
       </c>
       <c r="N68" s="8">
         <f t="shared" ref="N68:N71" si="18">M68-M67+12*(C68+D68+E68+F68+G68)+H68</f>
-        <v>133952.64294126967</v>
+        <v>155073.41791598589</v>
       </c>
       <c r="O68" s="13">
         <f t="shared" ref="O68:O71" si="19">N68/M67</f>
-        <v>5.8110940429787636E-2</v>
+        <v>6.7273492727653109E-2</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="16"/>
-        <v>64799.067753589821</v>
+        <v>85919.842728306045</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="17"/>
-        <v>-4107.451498894925</v>
+        <v>-2294.5849802317821</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="12"/>
@@ -7064,15 +7064,15 @@
       </c>
       <c r="N69" s="8">
         <f t="shared" si="18"/>
-        <v>137971.22222950755</v>
+        <v>159725.62045346526</v>
       </c>
       <c r="O69" s="13">
         <f t="shared" si="19"/>
-        <v>5.8110940429787539E-2</v>
+        <v>6.7273492727653011E-2</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="16"/>
-        <v>66743.039786197507</v>
+        <v>88497.438010155223</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="17"/>
-        <v>-4230.6750438617728</v>
+        <v>-2363.4225296387358</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="12"/>
@@ -7117,15 +7117,15 @@
       </c>
       <c r="N70" s="8">
         <f t="shared" si="18"/>
-        <v>142110.35889639275</v>
+        <v>164517.38906706922</v>
       </c>
       <c r="O70" s="13">
         <f t="shared" si="19"/>
-        <v>5.8110940429787532E-2</v>
+        <v>6.7273492727653011E-2</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="16"/>
-        <v>68745.330979783452</v>
+        <v>91152.361150459896</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="17"/>
-        <v>-4357.5952951776262</v>
+        <v>-2434.3252055278981</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="12"/>
@@ -7170,15 +7170,15 @@
       </c>
       <c r="N71" s="8">
         <f t="shared" si="18"/>
-        <v>146373.66966328479</v>
+        <v>169452.91073908153</v>
       </c>
       <c r="O71" s="13">
         <f t="shared" si="19"/>
-        <v>5.8110940429787629E-2</v>
+        <v>6.7273492727653109E-2</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="16"/>
-        <v>70807.690909176948</v>
+        <v>93886.931984973693</v>
       </c>
     </row>
   </sheetData>
